--- a/Technology/Hardware/Apple.xlsx
+++ b/Technology/Hardware/Apple.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCA9600-09CA-2B4A-BBFC-C73F13209268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD853DF-8A02-784D-9D98-CF332B0856E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2522,13 +2522,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>176.15</v>
+    <v>176.39</v>
     <v>124.17</v>
-    <v>1.2971999999999999</v>
-    <v>-1.63</v>
-    <v>-9.7809999999999998E-3</v>
-    <v>-0.02</v>
-    <v>-1.2120000000000001E-4</v>
+    <v>1.29</v>
+    <v>0.11</v>
+    <v>6.2839999999999988E-4</v>
+    <v>-0.13500000000000001</v>
+    <v>-7.7070000000000003E-4</v>
     <v>USD</v>
     <v>Apple Inc. (Apple) designs, manufactures and markets smartphones, personal computers, tablets, wearables and accessories and sells a range of related services. The Company’s products include iPhone, Mac, iPad, AirPods, Apple TV, Apple Watch, Beats products, HomePod, iPod touch and accessories. The Company operates various platforms, including the App Store, which allows customers to discover and download applications and digital content, such as books, music, video, games and podcasts. Apple offers digital content through subscription-based services, including Apple Arcade, Apple Music, Apple News+, Apple TV+ and Apple Fitness+. Apple also offers a range of other services, such as AppleCare, iCloud, Apple Card and Apple Pay. Apple sells its products and resells third-party products in a range of markets, including directly to consumers, small and mid-sized businesses, and education, enterprise and government customers through its retail and online stores and its direct sales force.</v>
     <v>164000</v>
@@ -2536,25 +2536,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Apple Park Way, CUPERTINO, CA, 95014 US</v>
-    <v>166.4521</v>
+    <v>176.39</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>45037.999969455472</v>
+    <v>45065.964530474215</v>
     <v>0</v>
-    <v>164.49</v>
-    <v>2610938000000</v>
+    <v>174.94</v>
+    <v>2755039092000</v>
     <v>APPLE INC.</v>
     <v>APPLE INC.</v>
-    <v>165.05</v>
-    <v>28.260400000000001</v>
-    <v>166.65</v>
-    <v>165.02</v>
-    <v>165</v>
-    <v>15821950000</v>
+    <v>176.39</v>
+    <v>29.685500000000001</v>
+    <v>175.05</v>
+    <v>175.16</v>
+    <v>175.02500000000001</v>
+    <v>15728700000</v>
     <v>AAPL</v>
     <v>APPLE INC. (XNAS:AAPL)</v>
-    <v>58337341</v>
-    <v>57935879</v>
+    <v>55794649</v>
+    <v>54771626</v>
     <v>1977</v>
   </rv>
   <rv s="2">
@@ -2719,9 +2719,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3142,10 +3142,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AI83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO99" sqref="AO99"/>
+      <selection pane="bottomRight" activeCell="AK113" sqref="AK113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3542,13 +3542,13 @@
         <v>394328000000</v>
       </c>
       <c r="AN3" s="28">
-        <v>389000000000</v>
+        <v>388000000000</v>
       </c>
       <c r="AO3" s="28">
         <v>415400000000</v>
       </c>
       <c r="AP3" s="28">
-        <v>444800000000</v>
+        <v>444300000000</v>
       </c>
       <c r="AQ3" s="28">
         <v>470000000000</v>
@@ -3724,19 +3724,19 @@
       </c>
       <c r="AN4" s="16">
         <f t="shared" si="0"/>
-        <v>-1.3511594408715633E-2</v>
+        <v>-1.6047554320261281E-2</v>
       </c>
       <c r="AO4" s="16">
         <f t="shared" si="0"/>
-        <v>6.7866323907455062E-2</v>
+        <v>7.0618556701030899E-2</v>
       </c>
       <c r="AP4" s="16">
         <f t="shared" si="0"/>
-        <v>7.0775156475685996E-2</v>
+        <v>6.9571497351949896E-2</v>
       </c>
       <c r="AQ4" s="16">
         <f t="shared" si="0"/>
-        <v>5.6654676258992787E-2</v>
+        <v>5.7843799234751359E-2</v>
       </c>
       <c r="AR4" s="16">
         <f t="shared" si="0"/>
@@ -5364,15 +5364,15 @@
       </c>
       <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>6.621234099531355</v>
+        <v>6.9866686920533159</v>
       </c>
       <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>26.16091700650281</v>
+        <v>27.604772321473302</v>
       </c>
       <c r="AV16" s="57">
         <f>AU101/AM106</f>
-        <v>23.428461186436117</v>
+        <v>24.721508681568157</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15044,7 +15044,7 @@
       </c>
       <c r="AU95" s="37" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>1.2971999999999999</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15295,7 +15295,7 @@
       </c>
       <c r="AU97" s="35">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>9.6794459999999999E-2</v>
+        <v>9.6484500000000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15670,7 +15670,7 @@
       </c>
       <c r="AU100" s="33">
         <f>AU99/AU103</f>
-        <v>4.3965101517498856E-2</v>
+        <v>4.1761560316320799E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15796,7 +15796,7 @@
       </c>
       <c r="AU101" s="38" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>2610938000000</v>
+        <v>2755039092000</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15922,7 +15922,7 @@
       </c>
       <c r="AU102" s="33">
         <f>AU101/AU103</f>
-        <v>0.95603489848250112</v>
+        <v>0.95823843968367917</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16048,7 +16048,7 @@
       </c>
       <c r="AU103" s="39">
         <f>AU99+AU101</f>
-        <v>2731007000000</v>
+        <v>2875108092000</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16338,7 +16338,7 @@
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>9.3438201012120997E-2</v>
+        <v>9.3309401913124146E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16461,23 +16461,23 @@
       </c>
       <c r="AN106" s="40">
         <f>AM106*(1+$AU$106)</f>
-        <v>117391625521.45534</v>
+        <v>117396121950.82594</v>
       </c>
       <c r="AO106" s="40">
         <f t="shared" ref="AO106:AR106" si="9">AN106*(1+$AU$106)</f>
-        <v>123657777900.53754</v>
+        <v>123667250963.21165</v>
       </c>
       <c r="AP106" s="40">
         <f t="shared" si="9"/>
-        <v>130258406145.87904</v>
+        <v>130273374508.9471</v>
       </c>
       <c r="AQ106" s="40">
         <f t="shared" si="9"/>
-        <v>137211363973.49918</v>
+        <v>137232387505.70222</v>
       </c>
       <c r="AR106" s="40">
         <f t="shared" si="9"/>
-        <v>144535458098.44604</v>
+        <v>144563140791.4577</v>
       </c>
       <c r="AS106" s="41" t="s">
         <v>142</v>
@@ -16487,7 +16487,7 @@
       </c>
       <c r="AU106" s="43">
         <f>(SUM(AN4:AR4)/5)</f>
-        <v>5.3378189042428303E-2</v>
+        <v>5.3418536389238838E-2</v>
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16536,7 +16536,7 @@
       <c r="AQ107" s="41"/>
       <c r="AR107" s="44">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>2164709801835.2168</v>
+        <v>2169206802596.4541</v>
       </c>
       <c r="AS107" s="45" t="s">
         <v>144</v>
@@ -16551,23 +16551,23 @@
     <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="AN108" s="44">
         <f t="shared" ref="AN108:AP108" si="10">AN107+AN106</f>
-        <v>117391625521.45534</v>
+        <v>117396121950.82594</v>
       </c>
       <c r="AO108" s="44">
         <f t="shared" si="10"/>
-        <v>123657777900.53754</v>
+        <v>123667250963.21165</v>
       </c>
       <c r="AP108" s="44">
         <f t="shared" si="10"/>
-        <v>130258406145.87904</v>
+        <v>130273374508.9471</v>
       </c>
       <c r="AQ108" s="44">
         <f>AQ107+AQ106</f>
-        <v>137211363973.49918</v>
+        <v>137232387505.70222</v>
       </c>
       <c r="AR108" s="44">
         <f>AR107+AR106</f>
-        <v>2309245259933.6631</v>
+        <v>2313769943387.9116</v>
       </c>
       <c r="AS108" s="45" t="s">
         <v>140</v>
@@ -16577,7 +16577,7 @@
       </c>
       <c r="AU108" s="49">
         <f>AU105</f>
-        <v>9.3438201012120997E-2</v>
+        <v>9.3309401913124146E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16592,7 +16592,7 @@
       </c>
       <c r="AO110" s="38">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>1883814123056.1035</v>
+        <v>1887736743401.02</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16619,7 +16619,7 @@
       </c>
       <c r="AO113" s="38">
         <f>AO110+AO111-AO112</f>
-        <v>1812049123056.1035</v>
+        <v>1815971743401.02</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16637,7 +16637,7 @@
       </c>
       <c r="AO115" s="58">
         <f>AO113/AO114</f>
-        <v>147.07909809647037</v>
+        <v>147.39748651936929</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16646,7 +16646,7 @@
       </c>
       <c r="AO116" s="53" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price (Extended hours)",TRUE)</f>
-        <v>165</v>
+        <v>175.02500000000001</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16655,7 +16655,7 @@
       </c>
       <c r="AO117" s="55">
         <f>(AO115/AO116)-1</f>
-        <v>-0.10861152668805829</v>
+        <v>-0.15784895575278224</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Apple.xlsx
+++ b/Technology/Hardware/Apple.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD853DF-8A02-784D-9D98-CF332B0856E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45399E27-D703-2840-B40E-9CAB602A2E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2522,13 +2522,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>176.39</v>
+    <v>187.04499999999999</v>
     <v>124.17</v>
-    <v>1.29</v>
-    <v>0.11</v>
-    <v>6.2839999999999988E-4</v>
-    <v>-0.13500000000000001</v>
-    <v>-7.7070000000000003E-4</v>
+    <v>1.2830999999999999</v>
+    <v>3.04</v>
+    <v>1.6525000000000001E-2</v>
     <v>USD</v>
     <v>Apple Inc. (Apple) designs, manufactures and markets smartphones, personal computers, tablets, wearables and accessories and sells a range of related services. The Company’s products include iPhone, Mac, iPad, AirPods, Apple TV, Apple Watch, Beats products, HomePod, iPod touch and accessories. The Company operates various platforms, including the App Store, which allows customers to discover and download applications and digital content, such as books, music, video, games and podcasts. Apple offers digital content through subscription-based services, including Apple Arcade, Apple Music, Apple News+, Apple TV+ and Apple Fitness+. Apple also offers a range of other services, such as AppleCare, iCloud, Apple Card and Apple Pay. Apple sells its products and resells third-party products in a range of markets, including directly to consumers, small and mid-sized businesses, and education, enterprise and government customers through its retail and online stores and its direct sales force.</v>
     <v>164000</v>
@@ -2536,25 +2534,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Apple Park Way, CUPERTINO, CA, 95014 US</v>
-    <v>176.39</v>
+    <v>187.04499999999999</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>45065.964530474215</v>
+    <v>45099.999982685156</v>
     <v>0</v>
-    <v>174.94</v>
-    <v>2755039092000</v>
+    <v>183.67</v>
+    <v>2941266900000</v>
     <v>APPLE INC.</v>
     <v>APPLE INC.</v>
-    <v>176.39</v>
-    <v>29.685500000000001</v>
-    <v>175.05</v>
-    <v>175.16</v>
-    <v>175.02500000000001</v>
+    <v>183.74</v>
+    <v>31.712</v>
+    <v>183.96</v>
+    <v>187</v>
     <v>15728700000</v>
     <v>AAPL</v>
     <v>APPLE INC. (XNAS:AAPL)</v>
-    <v>55794649</v>
-    <v>54771626</v>
+    <v>140124</v>
+    <v>61568675</v>
     <v>1977</v>
   </rv>
   <rv s="2">
@@ -2586,8 +2583,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2608,7 +2603,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2625,7 +2619,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2636,16 +2630,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2711,19 +2702,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2768,9 +2753,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2778,9 +2760,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3145,7 +3124,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AI83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AK113" sqref="AK113"/>
+      <selection pane="bottomRight" activeCell="AP95" sqref="AP95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5364,15 +5343,15 @@
       </c>
       <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>6.9866686920533159</v>
+        <v>7.4589349475563491</v>
       </c>
       <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>27.604772321473302</v>
+        <v>29.470726330871816</v>
       </c>
       <c r="AV16" s="57">
         <f>AU101/AM106</f>
-        <v>24.721508681568157</v>
+        <v>26.392567500874886</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15044,7 +15023,7 @@
       </c>
       <c r="AU95" s="37" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>1.29</v>
+        <v>1.2830999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15295,7 +15274,7 @@
       </c>
       <c r="AU97" s="35">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>9.6484500000000001E-2</v>
+        <v>9.6187455000000005E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15670,7 +15649,7 @@
       </c>
       <c r="AU100" s="33">
         <f>AU99/AU103</f>
-        <v>4.1761560316320799E-2</v>
+        <v>3.9221112586828512E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15796,7 +15775,7 @@
       </c>
       <c r="AU101" s="38" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>2755039092000</v>
+        <v>2941266900000</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15922,7 +15901,7 @@
       </c>
       <c r="AU102" s="33">
         <f>AU101/AU103</f>
-        <v>0.95823843968367917</v>
+        <v>0.96077888741317152</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16048,7 +16027,7 @@
       </c>
       <c r="AU103" s="39">
         <f>AU99+AU101</f>
-        <v>2875108092000</v>
+        <v>3061335900000</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16338,7 +16317,7 @@
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>9.3309401913124146E-2</v>
+        <v>9.3217155560998397E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16536,7 +16515,7 @@
       <c r="AQ107" s="41"/>
       <c r="AR107" s="44">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>2169206802596.4541</v>
+        <v>2172140103067.5793</v>
       </c>
       <c r="AS107" s="45" t="s">
         <v>144</v>
@@ -16567,7 +16546,7 @@
       </c>
       <c r="AR108" s="44">
         <f>AR107+AR106</f>
-        <v>2313769943387.9116</v>
+        <v>2316703243859.0371</v>
       </c>
       <c r="AS108" s="45" t="s">
         <v>140</v>
@@ -16577,7 +16556,7 @@
       </c>
       <c r="AU108" s="49">
         <f>AU105</f>
-        <v>9.3309401913124146E-2</v>
+        <v>9.3217155560998397E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16592,7 +16571,7 @@
       </c>
       <c r="AO110" s="38">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>1887736743401.02</v>
+        <v>1890324495565.5496</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16619,7 +16598,7 @@
       </c>
       <c r="AO113" s="38">
         <f>AO110+AO111-AO112</f>
-        <v>1815971743401.02</v>
+        <v>1818559495565.5496</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16637,7 +16616,7 @@
       </c>
       <c r="AO115" s="58">
         <f>AO113/AO114</f>
-        <v>147.39748651936929</v>
+        <v>147.60752732323795</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16645,8 +16624,8 @@
         <v>153</v>
       </c>
       <c r="AO116" s="53" cm="1">
-        <f t="array" ref="AO116">_FV(A1,"Price (Extended hours)",TRUE)</f>
-        <v>175.02500000000001</v>
+        <f t="array" ref="AO116">_FV(A1,"Price",TRUE)</f>
+        <v>187</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16655,7 +16634,7 @@
       </c>
       <c r="AO117" s="55">
         <f>(AO115/AO116)-1</f>
-        <v>-0.15784895575278224</v>
+        <v>-0.21065493410033187</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Apple.xlsx
+++ b/Technology/Hardware/Apple.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45399E27-D703-2840-B40E-9CAB602A2E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B9FB2B-BABC-5444-B8E3-49C3E2F28C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40960" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -391,9 +391,6 @@
   </si>
   <si>
     <t>Income Tax Expense</t>
-  </si>
-  <si>
-    <t>FCF Growth YoY</t>
   </si>
   <si>
     <t>WACC</t>
@@ -498,9 +495,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -551,17 +545,49 @@
   <si>
     <t>P/FCF</t>
   </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -724,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -830,22 +856,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -853,47 +870,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -935,96 +917,100 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1077,7 +1063,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>AAPL</a:t>
+              <a:t>Apple</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1116,10 +1102,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.4226032229390194E-2"/>
-          <c:y val="0.1054922986293097"/>
-          <c:w val="0.87455838767414418"/>
-          <c:h val="0.75996422967420496"/>
+          <c:x val="9.353277612214049E-2"/>
+          <c:y val="0.16406984500043176"/>
+          <c:w val="0.86658117862321549"/>
+          <c:h val="0.65582659645916608"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1483,11 +1469,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1527,7 +1513,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$AM$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$AM$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="38"/>
@@ -1783,8 +1769,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3476456188738673"/>
-          <c:y val="0.93259261730671761"/>
+          <c:x val="0.36360003697572496"/>
+          <c:y val="0.91632114268523956"/>
           <c:w val="0.30470865756448268"/>
           <c:h val="4.3867178653466628E-2"/>
         </c:manualLayout>
@@ -2368,13 +2354,13 @@
       <xdr:col>41</xdr:col>
       <xdr:colOff>27214</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>16330</xdr:rowOff>
+      <xdr:rowOff>16329</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>1596570</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>36286</xdr:rowOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>199570</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2400,6 +2386,70 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Concentrated"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="Treasuries"/>
+      <sheetName val="All Stars"/>
+      <sheetName val="ROIC Port"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="Small Caps"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Private Companies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0410000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2522,11 +2572,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>187.04499999999999</v>
+    <v>194.48</v>
     <v>124.17</v>
-    <v>1.2830999999999999</v>
-    <v>3.04</v>
-    <v>1.6525000000000001E-2</v>
+    <v>1.2943</v>
+    <v>-1.1299999999999999</v>
+    <v>-5.8909999999999995E-3</v>
+    <v>0.21</v>
+    <v>1.101E-3</v>
     <v>USD</v>
     <v>Apple Inc. (Apple) designs, manufactures and markets smartphones, personal computers, tablets, wearables and accessories and sells a range of related services. The Company’s products include iPhone, Mac, iPad, AirPods, Apple TV, Apple Watch, Beats products, HomePod, iPod touch and accessories. The Company operates various platforms, including the App Store, which allows customers to discover and download applications and digital content, such as books, music, video, games and podcasts. Apple offers digital content through subscription-based services, including Apple Arcade, Apple Music, Apple News+, Apple TV+ and Apple Fitness+. Apple also offers a range of other services, such as AppleCare, iCloud, Apple Card and Apple Pay. Apple sells its products and resells third-party products in a range of markets, including directly to consumers, small and mid-sized businesses, and education, enterprise and government customers through its retail and online stores and its direct sales force.</v>
     <v>164000</v>
@@ -2534,24 +2586,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Apple Park Way, CUPERTINO, CA, 95014 US</v>
-    <v>187.04499999999999</v>
+    <v>192.67</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>45099.999982685156</v>
+    <v>45114.999961700778</v>
     <v>0</v>
-    <v>183.67</v>
-    <v>2941266900000</v>
+    <v>190.24</v>
+    <v>2999149000000</v>
     <v>APPLE INC.</v>
     <v>APPLE INC.</v>
-    <v>183.74</v>
-    <v>31.712</v>
-    <v>183.96</v>
-    <v>187</v>
+    <v>191.41</v>
+    <v>32.527700000000003</v>
+    <v>191.81</v>
+    <v>190.68</v>
+    <v>190.89</v>
     <v>15728700000</v>
     <v>AAPL</v>
     <v>APPLE INC. (XNAS:AAPL)</v>
-    <v>140124</v>
-    <v>61568675</v>
+    <v>46814998</v>
+    <v>60840926</v>
     <v>1977</v>
   </rv>
   <rv s="2">
@@ -2583,6 +2636,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2603,6 +2658,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2619,7 +2675,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2630,13 +2686,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2702,13 +2761,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2753,6 +2818,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2760,6 +2828,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3120,11 +3191,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AI83" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AP95" sqref="AP95"/>
+      <selection pane="bottomRight" activeCell="AN15" sqref="AN15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3252,19 +3323,19 @@
       <c r="AM1" s="8">
         <v>2022</v>
       </c>
-      <c r="AN1" s="27">
+      <c r="AN1" s="23">
         <v>2023</v>
       </c>
-      <c r="AO1" s="27">
+      <c r="AO1" s="23">
         <v>2024</v>
       </c>
-      <c r="AP1" s="27">
+      <c r="AP1" s="23">
         <v>2025</v>
       </c>
-      <c r="AQ1" s="27">
+      <c r="AQ1" s="23">
         <v>2026</v>
       </c>
-      <c r="AR1" s="27">
+      <c r="AR1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3273,127 +3344,127 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AQ2" s="9"/>
       <c r="AR2" s="9"/>
@@ -3520,37 +3591,37 @@
       <c r="AM3" s="1">
         <v>394328000000</v>
       </c>
-      <c r="AN3" s="28">
-        <v>388000000000</v>
-      </c>
-      <c r="AO3" s="28">
-        <v>415400000000</v>
-      </c>
-      <c r="AP3" s="28">
-        <v>444300000000</v>
-      </c>
-      <c r="AQ3" s="28">
-        <v>470000000000</v>
-      </c>
-      <c r="AR3" s="28">
-        <v>510000000000</v>
+      <c r="AN3" s="24">
+        <v>384300000000</v>
+      </c>
+      <c r="AO3" s="24">
+        <v>411000000000</v>
+      </c>
+      <c r="AP3" s="24">
+        <v>444500000000</v>
+      </c>
+      <c r="AQ3" s="24">
+        <v>473700000000</v>
+      </c>
+      <c r="AR3" s="24">
+        <v>517200000000</v>
       </c>
       <c r="AS3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AU3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AT3" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="AU3" s="19" t="s">
-        <v>111</v>
-      </c>
       <c r="AV3" s="19" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3703,23 +3774,23 @@
       </c>
       <c r="AN4" s="16">
         <f t="shared" si="0"/>
-        <v>-1.6047554320261281E-2</v>
+        <v>-2.5430605992980415E-2</v>
       </c>
       <c r="AO4" s="16">
         <f t="shared" si="0"/>
-        <v>7.0618556701030899E-2</v>
+        <v>6.9476971116315456E-2</v>
       </c>
       <c r="AP4" s="16">
         <f t="shared" si="0"/>
-        <v>6.9571497351949896E-2</v>
+        <v>8.1508515815085225E-2</v>
       </c>
       <c r="AQ4" s="16">
         <f t="shared" si="0"/>
-        <v>5.7843799234751359E-2</v>
+        <v>6.5691788526434092E-2</v>
       </c>
       <c r="AR4" s="16">
         <f t="shared" si="0"/>
-        <v>8.5106382978723305E-2</v>
+        <v>9.183027232425589E-2</v>
       </c>
       <c r="AS4" s="17">
         <f>(AM4+AL4+AK4)/3</f>
@@ -3734,7 +3805,7 @@
         <v>0.24742339212280759</v>
       </c>
       <c r="AV4" s="17">
-        <f>(AM105+AL105+AK105)/3</f>
+        <f>(AM106+AL106+AK106)/3</f>
         <v>0.2371939549661711</v>
       </c>
     </row>
@@ -3976,16 +4047,16 @@
         <v>170782000000</v>
       </c>
       <c r="AS6" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT6" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU6" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="AT6" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="AU6" s="19" t="s">
-        <v>114</v>
-      </c>
       <c r="AV6" s="19" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4119,7 +4190,7 @@
         <v>0.25309999999999999</v>
       </c>
       <c r="AV7" s="20">
-        <f>AM106/AM3</f>
+        <f>AM107/AM3</f>
         <v>0.28261498042238947</v>
       </c>
     </row>
@@ -4128,31 +4199,31 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K8" s="1">
         <v>564303000</v>
@@ -4244,7 +4315,7 @@
     </row>
     <row r="9" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15" t="e">
         <f>B8/B3</f>
@@ -4399,16 +4470,16 @@
         <v>6.657148363798665E-2</v>
       </c>
       <c r="AS9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AT9" s="19" t="s">
+      <c r="AU9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AU9" s="19" t="s">
+      <c r="AV9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AV9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4416,118 +4487,118 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AS10" s="17">
         <f>AM9</f>
@@ -4551,118 +4622,118 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -4784,21 +4855,21 @@
         <v>25094000000</v>
       </c>
       <c r="AS12" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT12" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="AU12" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="AT12" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="AU12" s="19" t="s">
-        <v>117</v>
-      </c>
       <c r="AV12" s="19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -5001,91 +5072,91 @@
         <v>166100000</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -5207,16 +5278,16 @@
         <v>51345000000</v>
       </c>
       <c r="AS15" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT15" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="AU15" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AT15" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AU15" s="19" t="s">
-        <v>120</v>
-      </c>
       <c r="AV15" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -5337,53 +5408,53 @@
       <c r="AM16" s="1">
         <v>274891000000</v>
       </c>
-      <c r="AS16" s="29">
+      <c r="AS16" s="25">
         <f>(AM35+AL35+AK35+AJ35+AI35)/5</f>
         <v>-4.9070536893905711E-2</v>
       </c>
-      <c r="AT16" s="30">
+      <c r="AT16" s="26">
         <f>AU101/AM3</f>
-        <v>7.4589349475563491</v>
-      </c>
-      <c r="AU16" s="30">
+        <v>7.6057216327524291</v>
+      </c>
+      <c r="AU16" s="26">
         <f>AU101/AM28</f>
-        <v>29.470726330871816</v>
-      </c>
-      <c r="AV16" s="57">
-        <f>AU101/AM106</f>
-        <v>26.392567500874886</v>
+        <v>30.050689859022274</v>
+      </c>
+      <c r="AV16" s="32">
+        <f>AU101/AM107</f>
+        <v>26.911954990443544</v>
       </c>
     </row>
-    <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1">
         <v>39653000</v>
@@ -5419,28 +5490,28 @@
         <v>3000000</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD17" s="1">
         <v>136000000</v>
@@ -5473,7 +5544,7 @@
         <v>2931000000</v>
       </c>
     </row>
-    <row r="18" spans="1:47" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -5592,10 +5663,19 @@
         <v>11104000000</v>
       </c>
       <c r="AS18" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+      <c r="AT18" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="AU18" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="AV18" s="19" t="s">
+        <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -5713,14 +5793,41 @@
       <c r="AM19" s="10">
         <v>133138000000</v>
       </c>
-      <c r="AS19" s="31">
+      <c r="AN19" s="37">
+        <v>124800000000</v>
+      </c>
+      <c r="AO19" s="37">
+        <v>133000000000</v>
+      </c>
+      <c r="AP19" s="37">
+        <v>142800000000</v>
+      </c>
+      <c r="AQ19" s="37">
+        <v>152400000000</v>
+      </c>
+      <c r="AR19" s="37">
+        <v>165700000000</v>
+      </c>
+      <c r="AS19" s="27">
         <f>AM40-AM56-AM61</f>
         <v>-71765000000</v>
       </c>
+      <c r="AT19" s="33">
+        <f>AU101/AN3</f>
+        <v>7.8041868332032269</v>
+      </c>
+      <c r="AU19" s="34">
+        <f>AO116/AN31</f>
+        <v>31.78</v>
+      </c>
+      <c r="AV19" s="35">
+        <f>AU101/AN106</f>
+        <v>32.073029622500265</v>
+      </c>
     </row>
-    <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -5736,7 +5843,7 @@
         <v>0.52609690164275325</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:AM20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:AR20" si="3">(F19/E19)-1</f>
         <v>0.18422128355361767</v>
       </c>
       <c r="G20" s="15">
@@ -5871,9 +5978,28 @@
         <f t="shared" si="3"/>
         <v>8.1227260914760846E-2</v>
       </c>
-      <c r="AU20" s="15"/>
+      <c r="AN20" s="16">
+        <f t="shared" si="3"/>
+        <v>-6.2626748186092596E-2</v>
+      </c>
+      <c r="AO20" s="16">
+        <f t="shared" si="3"/>
+        <v>6.5705128205128194E-2</v>
+      </c>
+      <c r="AP20" s="16">
+        <f t="shared" si="3"/>
+        <v>7.3684210526315796E-2</v>
+      </c>
+      <c r="AQ20" s="16">
+        <f t="shared" si="3"/>
+        <v>6.7226890756302504E-2</v>
+      </c>
+      <c r="AR20" s="16">
+        <f t="shared" si="3"/>
+        <v>8.7270341207349E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -5991,8 +6117,34 @@
       <c r="AM21" s="2">
         <v>0.33760000000000001</v>
       </c>
+      <c r="AN21" s="38">
+        <f>AN19/AN3</f>
+        <v>0.32474629195940674</v>
+      </c>
+      <c r="AO21" s="38">
+        <f t="shared" ref="AO21:AR21" si="4">AO19/AO3</f>
+        <v>0.32360097323600973</v>
+      </c>
+      <c r="AP21" s="38">
+        <f t="shared" si="4"/>
+        <v>0.32125984251968503</v>
+      </c>
+      <c r="AQ21" s="38">
+        <f t="shared" si="4"/>
+        <v>0.32172260924635848</v>
+      </c>
+      <c r="AR21" s="38">
+        <f t="shared" si="4"/>
+        <v>0.32037896365042534</v>
+      </c>
+      <c r="AU21" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="AV21" s="19" t="s">
+        <v>161</v>
+      </c>
     </row>
-    <row r="22" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -6110,8 +6262,16 @@
       <c r="AM22" s="10">
         <v>119437000000</v>
       </c>
+      <c r="AU22" s="42">
+        <f>(-1*AM98)/AU101</f>
+        <v>4.9484036971821008E-3</v>
+      </c>
+      <c r="AV22" s="36">
+        <f>AM107/AU101</f>
+        <v>3.7158207211445644E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -6230,7 +6390,7 @@
         <v>0.3029</v>
       </c>
     </row>
-    <row r="24" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -6349,7 +6509,7 @@
         <v>-334000000</v>
       </c>
     </row>
-    <row r="25" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -6468,7 +6628,7 @@
         <v>119103000000</v>
       </c>
     </row>
-    <row r="26" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -6587,7 +6747,7 @@
         <v>0.30199999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -6628,7 +6788,7 @@
         <v>-479000000</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O27" s="1">
         <v>20000000</v>
@@ -6706,7 +6866,7 @@
         <v>19300000000</v>
       </c>
     </row>
-    <row r="28" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:48" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -6824,10 +6984,25 @@
       <c r="AM28" s="11">
         <v>99803000000</v>
       </c>
+      <c r="AN28" s="39">
+        <v>94450000000</v>
+      </c>
+      <c r="AO28" s="39">
+        <v>100600000000</v>
+      </c>
+      <c r="AP28" s="39">
+        <v>109400000000</v>
+      </c>
+      <c r="AQ28" s="39">
+        <v>121900000000</v>
+      </c>
+      <c r="AR28" s="39">
+        <v>132800000000</v>
+      </c>
     </row>
-    <row r="29" spans="1:47" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -6843,144 +7018,164 @@
         <v>0.84045977011494255</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:AM29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:AR29" si="5">(F28/E28)-1</f>
         <v>0.13414938795903075</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.6035242290748846E-2</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.34765213729206146</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.71207230471271798</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.8367269984917044</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5817321016166281</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.36695703757197484</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.9245283018867925</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.28063725490196068</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.2956937799043062</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.94498381877022664</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.3078202995008319</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.0318066157760815</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-3.6</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.1538461538461542E-2</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.8369565217391308</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.48988764044943811</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.75766716943187529</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.38272311212814647</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.17997517583781542</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.456697054698457</v>
       </c>
       <c r="AB29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.84985370727181908</v>
       </c>
       <c r="AC29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.60994522027621323</v>
       </c>
       <c r="AD29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.11252486042220788</v>
       </c>
       <c r="AE29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.6771066771066812E-2</v>
       </c>
       <c r="AF29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.3514047076689446</v>
       </c>
       <c r="AG29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.14434206090571977</v>
       </c>
       <c r="AH29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.830980366406191E-2</v>
       </c>
       <c r="AI29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.23122582780087275</v>
       </c>
       <c r="AJ29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-7.1811325191916797E-2</v>
       </c>
       <c r="AK29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.9000289561314627E-2</v>
       </c>
       <c r="AL29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.64916131055024295</v>
       </c>
       <c r="AM29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.410857625686516E-2</v>
+      </c>
+      <c r="AN29" s="16">
+        <f t="shared" si="5"/>
+        <v>-5.3635662254641669E-2</v>
+      </c>
+      <c r="AO29" s="16">
+        <f t="shared" si="5"/>
+        <v>6.511381683430395E-2</v>
+      </c>
+      <c r="AP29" s="16">
+        <f t="shared" si="5"/>
+        <v>8.74751491053678E-2</v>
+      </c>
+      <c r="AQ29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.11425959780621575</v>
+      </c>
+      <c r="AR29" s="16">
+        <f t="shared" si="5"/>
+        <v>8.9417555373256796E-2</v>
       </c>
       <c r="AU29" s="15"/>
     </row>
-    <row r="30" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -7098,13 +7293,33 @@
       <c r="AM30" s="2">
         <v>0.25309999999999999</v>
       </c>
+      <c r="AN30" s="40">
+        <f>AN28/AN3</f>
+        <v>0.24577153265677856</v>
+      </c>
+      <c r="AO30" s="40">
+        <f t="shared" ref="AO30:AR30" si="6">AO28/AO3</f>
+        <v>0.24476885644768856</v>
+      </c>
+      <c r="AP30" s="40">
+        <f t="shared" si="6"/>
+        <v>0.24611923509561304</v>
+      </c>
+      <c r="AQ30" s="40">
+        <f t="shared" si="6"/>
+        <v>0.25733586658222501</v>
+      </c>
+      <c r="AR30" s="40">
+        <f t="shared" si="6"/>
+        <v>0.25676720804331016</v>
+      </c>
     </row>
-    <row r="31" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C31" s="12">
         <v>0.01</v>
@@ -7152,13 +7367,13 @@
         <v>0.04</v>
       </c>
       <c r="R31" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S31" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T31" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U31" s="12">
         <v>0.01</v>
@@ -7217,13 +7432,28 @@
       <c r="AM31" s="12">
         <v>6.15</v>
       </c>
+      <c r="AN31" s="41">
+        <v>6</v>
+      </c>
+      <c r="AO31" s="41">
+        <v>6.4</v>
+      </c>
+      <c r="AP31" s="41">
+        <v>6.96</v>
+      </c>
+      <c r="AQ31" s="41">
+        <v>7.75</v>
+      </c>
+      <c r="AR31" s="41">
+        <v>8.44</v>
+      </c>
     </row>
-    <row r="32" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C32" s="12">
         <v>0.01</v>
@@ -7271,13 +7501,13 @@
         <v>0.04</v>
       </c>
       <c r="R32" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S32" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T32" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U32" s="12">
         <v>0.01</v>
@@ -7577,7 +7807,7 @@
     </row>
     <row r="35" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -7585,147 +7815,147 @@
         <v>4.8474945509453783E-2</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:AM35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:AM35" si="7">(D34-C34)/C34</f>
         <v>2.0966984833510366E-2</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-8.0638901454195052E-3</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.3225956208174518E-2</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.0379693741611832E-2</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.423452669017873E-2</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.7775701809318936E-2</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.2425910041092543E-2</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.5235565821954873E-2</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.5661981314704147E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.5832324233829351E-3</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.8814553800895469E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.33201916517269281</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.7202903815575554E-2</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.4438804804666864E-2</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.0827144458875898E-2</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.6792221357414218E-2</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.6464060146219439E-3</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.5604485701551182E-2</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.10606205349189669</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.4213917224958567E-2</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.3408149730036489E-2</v>
       </c>
       <c r="Y35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.4446323592250914E-2</v>
       </c>
       <c r="Z35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.3938472896083644E-3</v>
       </c>
       <c r="AA35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.9522494363316632E-2</v>
       </c>
       <c r="AB35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.2904558392234556E-2</v>
       </c>
       <c r="AC35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.2991474891767952E-3</v>
       </c>
       <c r="AD35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.4484505820564762E-2</v>
       </c>
       <c r="AE35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-6.1176539499150057E-2</v>
       </c>
       <c r="AF35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-5.3831804886207195E-2</v>
       </c>
       <c r="AG35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-5.0541086253245042E-2</v>
       </c>
       <c r="AH35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.519569091106436E-2</v>
       </c>
       <c r="AI35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.7905132288793784E-2</v>
       </c>
       <c r="AJ35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-7.0237668818819751E-2</v>
       </c>
       <c r="AK35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-5.7402558404513054E-2</v>
       </c>
       <c r="AL35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.7841562180835994E-2</v>
       </c>
       <c r="AM35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.1965762776565959E-2</v>
       </c>
     </row>
@@ -7734,118 +7964,118 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AM36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:39" ht="21" x14ac:dyDescent="0.25">
@@ -7853,118 +8083,118 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -8091,31 +8321,31 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K39" s="1">
         <v>54368000</v>
@@ -8924,52 +9154,52 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R46" s="1">
         <v>66000000</v>
@@ -9023,19 +9253,19 @@
         <v>5717000000</v>
       </c>
       <c r="AI46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -9043,52 +9273,52 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R47" s="1">
         <v>10000000</v>
@@ -9142,19 +9372,19 @@
         <v>2298000000</v>
       </c>
       <c r="AI47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -9162,52 +9392,52 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R48" s="1">
         <v>76000000</v>
@@ -9261,19 +9491,19 @@
         <v>8015000000</v>
       </c>
       <c r="AI48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -9281,52 +9511,52 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P49" s="1">
         <v>339000000</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R49" s="1">
         <v>128000000</v>
@@ -9338,19 +9568,19 @@
         <v>5000000</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z49" s="1">
         <v>10528000000</v>
@@ -9400,34 +9630,34 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1">
         <v>702000000</v>
@@ -9445,7 +9675,7 @@
         <v>208000000</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R50" s="1">
         <v>266000000</v>
@@ -9463,7 +9693,7 @@
         <v>183000000</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X50" s="1">
         <v>88000000</v>
@@ -9475,43 +9705,43 @@
         <v>259000000</v>
       </c>
       <c r="AA50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -9757,118 +9987,118 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:39" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -9995,16 +10225,16 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F55" s="1">
         <v>334200000</v>
@@ -10114,13 +10344,13 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1">
         <v>127900000</v>
@@ -10153,52 +10383,52 @@
         <v>25000000</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T56" s="1">
         <v>304000000</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE56" s="1">
         <v>6308000000</v>
@@ -10233,67 +10463,67 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W57" s="1">
         <v>388000000</v>
@@ -10323,28 +10553,28 @@
         <v>1209000000</v>
       </c>
       <c r="AF57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -10352,58 +10582,58 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T58" s="1">
         <v>368000000</v>
@@ -10709,31 +10939,31 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K61" s="1">
         <v>304000000</v>
@@ -10763,34 +10993,34 @@
         <v>316000000</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD61" s="1">
         <v>16960000000</v>
@@ -10828,64 +11058,64 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V62" s="1">
         <v>281000000</v>
@@ -10930,16 +11160,16 @@
         <v>2797000000</v>
       </c>
       <c r="AJ62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -10977,28 +11207,28 @@
         <v>670668000</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q63" s="1">
         <v>463000000</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T63" s="1">
         <v>235000000</v>
@@ -11022,7 +11252,7 @@
         <v>966000000</v>
       </c>
       <c r="AA63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB63" s="1">
         <v>8159000000</v>
@@ -11049,16 +11279,16 @@
         <v>426000000</v>
       </c>
       <c r="AJ63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -11066,19 +11296,19 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1">
         <v>-100000</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G64" s="1">
         <v>100000</v>
@@ -11087,10 +11317,10 @@
         <v>-100000</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K64" s="1">
         <v>472000</v>
@@ -11111,7 +11341,7 @@
         <v>208000000</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R64" s="1">
         <v>266000000</v>
@@ -11120,10 +11350,10 @@
         <v>229000000</v>
       </c>
       <c r="T64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V64" s="1">
         <v>12000000</v>
@@ -11304,118 +11534,118 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -11542,31 +11772,31 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K68" s="1">
         <v>297929000</v>
@@ -11840,7 +12070,7 @@
         <v>-15000000</v>
       </c>
       <c r="V70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W70" s="1">
         <v>22000000</v>
@@ -11947,10 +12177,10 @@
         <v>707000000</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T71" s="1">
         <v>-62000000</v>
@@ -11962,55 +12192,55 @@
         <v>-60000000</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -12256,118 +12486,118 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AM74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:39" ht="21" x14ac:dyDescent="0.25">
@@ -12375,118 +12605,118 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -12494,16 +12724,16 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F76" s="1">
         <v>454000000</v>
@@ -12613,16 +12843,16 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F77" s="1">
         <v>124800000</v>
@@ -12732,16 +12962,16 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1">
         <v>111300000</v>
@@ -12851,58 +13081,58 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T79" s="1">
         <v>16000000</v>
@@ -12967,158 +13197,158 @@
     </row>
     <row r="80" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AM80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:AM80" si="8">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="M80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="N80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="O80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="P80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="R80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="S80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.5777348155308524E-3</v>
       </c>
       <c r="U80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.9859886459717355E-3</v>
       </c>
       <c r="V80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.0148589476706625E-3</v>
       </c>
       <c r="W80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.4390370178617658E-3</v>
       </c>
       <c r="X80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.008081313005082E-2</v>
       </c>
       <c r="Y80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.5887188644970598E-2</v>
       </c>
       <c r="Z80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.9432356241618085E-2</v>
       </c>
       <c r="AA80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3476427750095821E-2</v>
       </c>
       <c r="AB80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0789938013284187E-2</v>
       </c>
       <c r="AC80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1117642548623713E-2</v>
       </c>
       <c r="AD80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3182376689485695E-2</v>
       </c>
       <c r="AE80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.5662354003118249E-2</v>
       </c>
       <c r="AF80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.5343473889138481E-2</v>
       </c>
       <c r="AG80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.9523370076841389E-2</v>
       </c>
       <c r="AH80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.1113796382735545E-2</v>
       </c>
       <c r="AI80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.0105800184491426E-2</v>
       </c>
       <c r="AJ80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.3322853167495598E-2</v>
       </c>
       <c r="AK80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.4876600550061016E-2</v>
       </c>
       <c r="AL80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.1611898845597662E-2</v>
       </c>
       <c r="AM80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.2920005680550203E-2</v>
       </c>
     </row>
@@ -13127,16 +13357,16 @@
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F81" s="1">
         <v>-109000000</v>
@@ -13246,31 +13476,31 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82" s="1">
         <v>-199401000</v>
@@ -13365,16 +13595,16 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1">
         <v>-13900000</v>
@@ -13478,41 +13708,41 @@
       <c r="AM83" s="1">
         <v>1484000000</v>
       </c>
-      <c r="AT83" s="61" t="s">
-        <v>122</v>
-      </c>
-      <c r="AU83" s="62"/>
+      <c r="AT83" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU83" s="67"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1">
         <v>139095000</v>
@@ -13601,41 +13831,41 @@
       <c r="AM84" s="1">
         <v>9448000000</v>
       </c>
-      <c r="AT84" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="AU84" s="64"/>
+      <c r="AT84" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU84" s="68"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K85" s="1">
         <v>15873000</v>
@@ -13724,10 +13954,10 @@
       <c r="AM85" s="1">
         <v>478000000</v>
       </c>
-      <c r="AT85" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="AU85" s="24">
+      <c r="AT85" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU85" s="46">
         <f>AM17</f>
         <v>2931000000</v>
       </c>
@@ -13737,16 +13967,16 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F86" s="1">
         <v>-73800000</v>
@@ -13815,22 +14045,22 @@
         <v>24000000</v>
       </c>
       <c r="AB86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH86" s="1">
         <v>-166000000</v>
@@ -13850,10 +14080,10 @@
       <c r="AM86" s="1">
         <v>111000000</v>
       </c>
-      <c r="AT86" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="AU86" s="24">
+      <c r="AT86" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="AU86" s="46">
         <f>AM56</f>
         <v>21110000000</v>
       </c>
@@ -13863,16 +14093,16 @@
         <v>73</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F87" s="10">
         <v>507300000</v>
@@ -13976,10 +14206,10 @@
       <c r="AM87" s="10">
         <v>122151000000</v>
       </c>
-      <c r="AT87" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="AU87" s="24">
+      <c r="AT87" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU87" s="46">
         <f>AM61</f>
         <v>98959000000</v>
       </c>
@@ -13989,16 +14219,16 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F88" s="1">
         <v>-239000000</v>
@@ -14102,174 +14332,174 @@
       <c r="AM88" s="1">
         <v>-10708000000</v>
       </c>
-      <c r="AT88" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU88" s="33">
+      <c r="AT88" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU88" s="48">
         <f>AU85/(AU86+AU87)</f>
         <v>2.4410963695874872E-2</v>
       </c>
     </row>
     <row r="89" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15" t="e">
+        <f t="shared" ref="B89:AM89" si="9">(-1*B88)/B3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C89" s="15" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D89" s="15" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E89" s="15" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.5230885692657076E-2</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.0353339090385722E-2</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.4602460055795078E-2</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.7502998659422847E-2</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.6714303622915884E-2</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.7367654439973759E-2</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.4373531007051165E-2</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="9"/>
+        <v>6.8137902979762029E-3</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="9"/>
+        <v>7.484818528456433E-3</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="9"/>
+        <v>7.74280424171015E-3</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="9"/>
+        <v>7.6622106292794263E-3</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.3403482400100213E-2</v>
+      </c>
+      <c r="R89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.3259369755733731E-2</v>
+      </c>
+      <c r="S89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.0303030303030304E-2</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.6421781859191237E-2</v>
+      </c>
+      <c r="U89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.1258606111849258E-2</v>
+      </c>
+      <c r="V89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.866341253319934E-2</v>
+      </c>
+      <c r="W89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.4015014237639141E-2</v>
+      </c>
+      <c r="X89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.0617345663584105E-2</v>
+      </c>
+      <c r="Y89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.3590935681517289E-2</v>
+      </c>
+      <c r="Z89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.1310726113255055E-2</v>
+      </c>
+      <c r="AA89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.0739747029513223E-2</v>
+      </c>
+      <c r="AB89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.9353712274478286E-2</v>
+      </c>
+      <c r="AC89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.3000485598180283E-2</v>
+      </c>
+      <c r="AD89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.7773682054882687E-2</v>
+      </c>
+      <c r="AE89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.235920019694193E-2</v>
+      </c>
+      <c r="AF89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.812271356138887E-2</v>
+      </c>
+      <c r="AG89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.9052397757362998E-2</v>
+      </c>
+      <c r="AH89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.4315677430049641E-2</v>
+      </c>
+      <c r="AI89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.0125190609762983E-2</v>
+      </c>
+      <c r="AJ89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.033838892433525E-2</v>
+      </c>
+      <c r="AK89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.6625138881299748E-2</v>
+      </c>
+      <c r="AL89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.0302036264033657E-2</v>
+      </c>
+      <c r="AM89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.7155058732831552E-2</v>
+      </c>
+      <c r="AT89" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:AM89" si="7">(-1*B88)/B3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.5230885692657076E-2</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.0353339090385722E-2</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.4602460055795078E-2</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.7502998659422847E-2</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.6714303622915884E-2</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.7367654439973759E-2</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.4373531007051165E-2</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.8137902979762029E-3</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="7"/>
-        <v>7.484818528456433E-3</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="7"/>
-        <v>7.74280424171015E-3</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="7"/>
-        <v>7.6622106292794263E-3</v>
-      </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.3403482400100213E-2</v>
-      </c>
-      <c r="R89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.3259369755733731E-2</v>
-      </c>
-      <c r="S89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.0303030303030304E-2</v>
-      </c>
-      <c r="T89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.6421781859191237E-2</v>
-      </c>
-      <c r="U89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.1258606111849258E-2</v>
-      </c>
-      <c r="V89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.866341253319934E-2</v>
-      </c>
-      <c r="W89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.4015014237639141E-2</v>
-      </c>
-      <c r="X89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.0617345663584105E-2</v>
-      </c>
-      <c r="Y89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.3590935681517289E-2</v>
-      </c>
-      <c r="Z89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.1310726113255055E-2</v>
-      </c>
-      <c r="AA89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.0739747029513223E-2</v>
-      </c>
-      <c r="AB89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.9353712274478286E-2</v>
-      </c>
-      <c r="AC89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.3000485598180283E-2</v>
-      </c>
-      <c r="AD89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.7773682054882687E-2</v>
-      </c>
-      <c r="AE89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.235920019694193E-2</v>
-      </c>
-      <c r="AF89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.812271356138887E-2</v>
-      </c>
-      <c r="AG89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.9052397757362998E-2</v>
-      </c>
-      <c r="AH89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.4315677430049641E-2</v>
-      </c>
-      <c r="AI89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.0125190609762983E-2</v>
-      </c>
-      <c r="AJ89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.033838892433525E-2</v>
-      </c>
-      <c r="AK89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.6625138881299748E-2</v>
-      </c>
-      <c r="AL89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.0302036264033657E-2</v>
-      </c>
-      <c r="AM89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.7155058732831552E-2</v>
-      </c>
-      <c r="AT89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU89" s="24">
+      <c r="AU89" s="46">
         <f>AM27</f>
         <v>19300000000</v>
       </c>
@@ -14279,40 +14509,40 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N90" s="1">
         <v>-384000000</v>
@@ -14321,7 +14551,7 @@
         <v>24000000</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q90" s="1">
         <v>372000000</v>
@@ -14333,25 +14563,25 @@
         <v>-27000000</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W90" s="1">
         <v>40000000</v>
       </c>
       <c r="X90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y90" s="1">
         <v>-220000000</v>
       </c>
       <c r="Z90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA90" s="1">
         <v>-638000000</v>
@@ -14392,10 +14622,10 @@
       <c r="AM90" s="1">
         <v>-306000000</v>
       </c>
-      <c r="AT90" s="23" t="s">
+      <c r="AT90" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="AU90" s="24">
+      <c r="AU90" s="46">
         <f>AM25</f>
         <v>119103000000</v>
       </c>
@@ -14405,16 +14635,16 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1">
         <v>-984700000</v>
@@ -14518,10 +14748,10 @@
       <c r="AM91" s="1">
         <v>-76923000000</v>
       </c>
-      <c r="AT91" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="AU91" s="33">
+      <c r="AT91" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU91" s="48">
         <f>AU89/AU90</f>
         <v>0.16204461684424407</v>
       </c>
@@ -14531,16 +14761,16 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1">
         <v>787400000</v>
@@ -14644,10 +14874,10 @@
       <c r="AM92" s="1">
         <v>67363000000</v>
       </c>
-      <c r="AT92" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU92" s="35">
+      <c r="AT92" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU92" s="48">
         <f>AU88*(1-AU91)</f>
         <v>2.0455298436978075E-2</v>
       </c>
@@ -14657,16 +14887,16 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F93" s="1">
         <v>33200000</v>
@@ -14770,26 +15000,26 @@
       <c r="AM93" s="1">
         <v>-1780000000</v>
       </c>
-      <c r="AT93" s="63" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU93" s="64"/>
+      <c r="AT93" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU93" s="68"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F94" s="10">
         <v>-403100000</v>
@@ -14893,11 +15123,12 @@
       <c r="AM94" s="10">
         <v>-22354000000</v>
       </c>
-      <c r="AT94" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="AU94" s="36">
-        <v>4.095E-2</v>
+      <c r="AT94" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="AU94" s="49">
+        <f>[1]Treasuries!$C$8</f>
+        <v>4.0410000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14905,34 +15136,34 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1">
         <v>-2000000</v>
@@ -14947,55 +15178,55 @@
         <v>-25000000</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U95" s="1">
         <v>-300000000</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG95" s="1">
         <v>-2500000000</v>
@@ -15018,12 +15249,12 @@
       <c r="AM95" s="1">
         <v>-9543000000</v>
       </c>
-      <c r="AT95" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU95" s="37" cm="1">
+      <c r="AT95" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU95" s="50" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>1.2830999999999999</v>
+        <v>1.2943</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15031,16 +15262,16 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F96" s="1">
         <v>96000000</v>
@@ -15142,12 +15373,12 @@
         <v>1105000000</v>
       </c>
       <c r="AM96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT96" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="AU96" s="36">
+        <v>91</v>
+      </c>
+      <c r="AT96" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU96" s="49">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -15156,16 +15387,16 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1">
         <v>-12900000</v>
@@ -15183,19 +15414,19 @@
         <v>-273500000</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P97" s="1">
         <v>-75000000</v>
@@ -15204,19 +15435,19 @@
         <v>-116000000</v>
       </c>
       <c r="R97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T97" s="1">
         <v>-26000000</v>
       </c>
       <c r="U97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W97" s="1">
         <v>-355000000</v>
@@ -15228,16 +15459,16 @@
         <v>-124000000</v>
       </c>
       <c r="Z97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD97" s="1">
         <v>-22860000000</v>
@@ -15269,12 +15500,12 @@
       <c r="AM97" s="1">
         <v>-89402000000</v>
       </c>
-      <c r="AT97" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU97" s="35">
+      <c r="AT97" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU97" s="48">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>9.6187455000000005E-2</v>
+        <v>9.6828537000000006E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15282,16 +15513,16 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1">
         <v>-50300000</v>
@@ -15318,49 +15549,49 @@
         <v>-14000000</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC98" s="1">
         <v>-2488000000</v>
@@ -15395,26 +15626,26 @@
       <c r="AM98" s="1">
         <v>-14841000000</v>
       </c>
-      <c r="AT98" s="63" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU98" s="64"/>
+      <c r="AT98" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="AU98" s="68"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F99" s="1">
         <v>-71100000</v>
@@ -15447,25 +15678,25 @@
         <v>3000000</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W99" s="1">
         <v>361000000</v>
@@ -15518,10 +15749,10 @@
       <c r="AM99" s="1">
         <v>3037000000</v>
       </c>
-      <c r="AT99" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU99" s="24">
+      <c r="AT99" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU99" s="46">
         <f>AU86+AU87</f>
         <v>120069000000</v>
       </c>
@@ -15531,16 +15762,16 @@
         <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F100" s="10">
         <v>-38300000</v>
@@ -15644,12 +15875,12 @@
       <c r="AM100" s="10">
         <v>-110749000000</v>
       </c>
-      <c r="AT100" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="AU100" s="33">
+      <c r="AT100" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU100" s="48">
         <f>AU99/AU103</f>
-        <v>3.9221112586828512E-2</v>
+        <v>3.849330184680904E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15657,125 +15888,125 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM101" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT101" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="AU101" s="38" cm="1">
+        <v>91</v>
+      </c>
+      <c r="AT101" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU101" s="30" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>2941266900000</v>
+        <v>2999149000000</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15783,16 +16014,16 @@
         <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F102" s="10">
         <v>-38300000</v>
@@ -15896,12 +16127,12 @@
       <c r="AM102" s="10">
         <v>-10952000000</v>
       </c>
-      <c r="AT102" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="AU102" s="33">
+      <c r="AT102" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU102" s="48">
         <f>AU101/AU103</f>
-        <v>0.96077888741317152</v>
+        <v>0.96150669815319101</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15909,16 +16140,16 @@
         <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F103" s="1">
         <v>372400000</v>
@@ -16022,12 +16253,12 @@
       <c r="AM103" s="1">
         <v>35929000000</v>
       </c>
-      <c r="AT103" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU103" s="39">
+      <c r="AT103" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU103" s="51">
         <f>AU99+AU101</f>
-        <v>3061335900000</v>
+        <v>3119218000000</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16035,31 +16266,31 @@
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K104" s="11">
         <v>1203488000</v>
@@ -16148,500 +16379,628 @@
       <c r="AM104" s="11">
         <v>24977000000</v>
       </c>
-      <c r="AT104" s="63" t="s">
-        <v>141</v>
-      </c>
-      <c r="AU104" s="64"/>
+      <c r="AT104" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU104" s="68"/>
     </row>
     <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
+        <v>162</v>
+      </c>
+      <c r="B105" s="1" t="e">
+        <f t="shared" ref="B105:AL105" si="10">(B22*(1-$AU$91))+B77+B88+B81</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D105" s="15" t="e">
-        <f>(D106/C106)-1</f>
+      <c r="C105" s="1" t="e">
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E105" s="15" t="e">
-        <f>(E106/D106)-1</f>
+      <c r="D105" s="1" t="e">
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F105" s="15" t="e">
-        <f>(F106/E106)-1</f>
+      <c r="E105" s="1" t="e">
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>1.7566157286619455</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:AM105" si="8">(H106/G106)-1</f>
-        <v>-1.1211465657111952</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="8"/>
-        <v>-8.6875</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="8"/>
-        <v>-2.2701800232288036</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="8"/>
-        <v>-1.6599702823179792</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="8"/>
-        <v>-1.6910191753491466</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="8"/>
-        <v>-2.132832080200501</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.70132743362831862</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="8"/>
-        <v>4.325925925925926</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="8"/>
-        <v>4.4506258692628586E-2</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="8"/>
-        <v>-4.260985352862845E-2</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" si="8"/>
-        <v>-1.0653685674547984</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.8085106382978724</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" si="8"/>
-        <v>-2.4705882352941178</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" si="8"/>
-        <v>5.0640000000000001</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" si="8"/>
-        <v>2.0013192612137205</v>
-      </c>
-      <c r="W105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.31296703296703299</v>
-      </c>
-      <c r="X105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.8688419705694179</v>
-      </c>
-      <c r="Y105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.87265834076717219</v>
-      </c>
-      <c r="Z105" s="15">
-        <f t="shared" si="8"/>
-        <v>6.5380493033226239E-2</v>
-      </c>
-      <c r="AA105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.84149340487368662</v>
-      </c>
-      <c r="AB105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.82572538545586993</v>
-      </c>
-      <c r="AC105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.37826245968680383</v>
-      </c>
-      <c r="AD105" s="15">
-        <f t="shared" si="8"/>
-        <v>7.5650118203309802E-2</v>
-      </c>
-      <c r="AE105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.11908499663601702</v>
-      </c>
-      <c r="AF105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.39835671342685375</v>
-      </c>
-      <c r="AG105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.25082404196164976</v>
-      </c>
-      <c r="AH105" s="15">
-        <f t="shared" si="8"/>
-        <v>-2.8177366286632477E-2</v>
-      </c>
-      <c r="AI105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.26214987303899373</v>
-      </c>
-      <c r="AJ105" s="15">
-        <f t="shared" si="8"/>
-        <v>-8.1486564464060107E-2</v>
-      </c>
-      <c r="AK105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.24567033414832928</v>
-      </c>
-      <c r="AL105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.26699379813262447</v>
-      </c>
-      <c r="AM105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.19891773261755952</v>
-      </c>
-      <c r="AN105" s="15"/>
-      <c r="AO105" s="15"/>
-      <c r="AP105" s="15"/>
-      <c r="AQ105" s="15"/>
-      <c r="AR105" s="15"/>
-      <c r="AS105" s="15"/>
-      <c r="AT105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AU105" s="26">
+      <c r="F105" s="1">
+        <f t="shared" si="10"/>
+        <v>308315099.53569603</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="10"/>
+        <v>720324232.80689824</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="10"/>
+        <v>-39782557.114430428</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="10"/>
+        <v>718140652.20859253</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="10"/>
+        <v>-901189725.69960451</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="10"/>
+        <v>693742309.78228927</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="10"/>
+        <v>-255838517.92146301</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="10"/>
+        <v>39107705.095589638</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="10"/>
+        <v>-161612259.97665882</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="10"/>
+        <v>670706355.00365233</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="10"/>
+        <v>715825982.55291629</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="10"/>
+        <v>571412710.00730467</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="10"/>
+        <v>-207256651.80558002</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="10"/>
+        <v>-144754758.48635215</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="10"/>
+        <v>74162044.616844237</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="10"/>
+        <v>695173454.9087764</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="10"/>
+        <v>1766626382.2069972</v>
+      </c>
+      <c r="W105" s="1">
+        <f t="shared" si="10"/>
+        <v>1402504554.8810692</v>
+      </c>
+      <c r="X105" s="1">
+        <f t="shared" si="10"/>
+        <v>4601545284.3337278</v>
+      </c>
+      <c r="Y105" s="1">
+        <f t="shared" si="10"/>
+        <v>8759170029.3023682</v>
+      </c>
+      <c r="Z105" s="1">
+        <f t="shared" si="10"/>
+        <v>9511062324.2067795</v>
+      </c>
+      <c r="AA105" s="1">
+        <f t="shared" si="10"/>
+        <v>15639809719.318573</v>
+      </c>
+      <c r="AB105" s="1">
+        <f t="shared" si="10"/>
+        <v>31625512396.832993</v>
+      </c>
+      <c r="AC105" s="1">
+        <f t="shared" si="10"/>
+        <v>40972493320.907112</v>
+      </c>
+      <c r="AD105" s="1">
+        <f t="shared" si="10"/>
+        <v>46128975819.248886</v>
+      </c>
+      <c r="AE105" s="1">
+        <f t="shared" si="10"/>
+        <v>49417171481.826653</v>
+      </c>
+      <c r="AF105" s="1">
+        <f t="shared" si="10"/>
+        <v>71344561942.184494</v>
+      </c>
+      <c r="AG105" s="1">
+        <f t="shared" si="10"/>
+        <v>48552433918.541092</v>
+      </c>
+      <c r="AH105" s="1">
+        <f t="shared" si="10"/>
+        <v>43559535024.306694</v>
+      </c>
+      <c r="AI105" s="1">
+        <f t="shared" si="10"/>
+        <v>91693360754.976776</v>
+      </c>
+      <c r="AJ105" s="1">
+        <f t="shared" si="10"/>
+        <v>52134487645.147476</v>
+      </c>
+      <c r="AK105" s="1">
+        <f t="shared" si="10"/>
+        <v>64983386438.628746</v>
+      </c>
+      <c r="AL105" s="1">
+        <f t="shared" si="10"/>
+        <v>86582401039.436447</v>
+      </c>
+      <c r="AM105" s="1">
+        <f>(AM22*(1-$AU$91))+AM77+AM88+AM81</f>
+        <v>101678877097.97401</v>
+      </c>
+      <c r="AN105" s="28">
+        <f>AM105*(1+$AU$106)</f>
+        <v>107435466212.66307</v>
+      </c>
+      <c r="AO105" s="28">
+        <f t="shared" ref="AO105:AR105" si="11">AN105*(1+$AU$106)</f>
+        <v>113517966855.69666</v>
+      </c>
+      <c r="AP105" s="28">
+        <f t="shared" si="11"/>
+        <v>119944830634.82228</v>
+      </c>
+      <c r="AQ105" s="28">
+        <f t="shared" si="11"/>
+        <v>126735553802.72592</v>
+      </c>
+      <c r="AR105" s="28">
+        <f t="shared" si="11"/>
+        <v>133910736400.01089</v>
+      </c>
+      <c r="AS105" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT105" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU105" s="53">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>9.3217155560998397E-2</v>
+        <v>9.3888678874975262E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F106" s="1">
-        <v>268300000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>739600000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>-89600000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>688800000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>-874900000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>577408000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>-399000000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>452000000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>135000000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>719000000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>751000000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>719000000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>-47000000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>-85000000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>125000000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>758000000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>2275000000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>1563000000</v>
-      </c>
-      <c r="X106" s="1">
-        <v>4484000000</v>
-      </c>
-      <c r="Y106" s="1">
-        <v>8397000000</v>
-      </c>
-      <c r="Z106" s="1">
-        <v>8946000000</v>
-      </c>
-      <c r="AA106" s="1">
-        <v>16474000000</v>
-      </c>
-      <c r="AB106" s="1">
-        <v>30077000000</v>
-      </c>
-      <c r="AC106" s="1">
-        <v>41454000000</v>
-      </c>
-      <c r="AD106" s="1">
-        <v>44590000000</v>
-      </c>
-      <c r="AE106" s="1">
-        <v>49900000000</v>
-      </c>
-      <c r="AF106" s="1">
-        <v>69778000000</v>
-      </c>
-      <c r="AG106" s="1">
-        <v>52276000000</v>
-      </c>
-      <c r="AH106" s="1">
-        <v>50803000000</v>
-      </c>
-      <c r="AI106" s="1">
-        <v>64121000000</v>
-      </c>
-      <c r="AJ106" s="1">
-        <v>58896000000</v>
-      </c>
-      <c r="AK106" s="1">
-        <v>73365000000</v>
-      </c>
-      <c r="AL106" s="1">
-        <v>92953000000</v>
-      </c>
-      <c r="AM106" s="1">
-        <v>111443000000</v>
-      </c>
-      <c r="AN106" s="40">
-        <f>AM106*(1+$AU$106)</f>
-        <v>117396121950.82594</v>
-      </c>
-      <c r="AO106" s="40">
-        <f t="shared" ref="AO106:AR106" si="9">AN106*(1+$AU$106)</f>
-        <v>123667250963.21165</v>
-      </c>
-      <c r="AP106" s="40">
-        <f t="shared" si="9"/>
-        <v>130273374508.9471</v>
-      </c>
-      <c r="AQ106" s="40">
-        <f t="shared" si="9"/>
-        <v>137232387505.70222</v>
-      </c>
-      <c r="AR106" s="40">
-        <f t="shared" si="9"/>
-        <v>144563140791.4577</v>
-      </c>
-      <c r="AS106" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="AT106" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU106" s="43">
+      <c r="A106" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f t="shared" ref="C106:AM106" si="12">(C107/B107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D106" s="15" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E106" s="15" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F106" s="15" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="12"/>
+        <v>1.7566157286619455</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="12"/>
+        <v>-1.1211465657111952</v>
+      </c>
+      <c r="I106" s="15">
+        <f t="shared" si="12"/>
+        <v>-8.6875</v>
+      </c>
+      <c r="J106" s="15">
+        <f t="shared" si="12"/>
+        <v>-2.2701800232288036</v>
+      </c>
+      <c r="K106" s="15">
+        <f t="shared" si="12"/>
+        <v>-1.6599702823179792</v>
+      </c>
+      <c r="L106" s="15">
+        <f t="shared" si="12"/>
+        <v>-1.6910191753491466</v>
+      </c>
+      <c r="M106" s="15">
+        <f t="shared" si="12"/>
+        <v>-2.132832080200501</v>
+      </c>
+      <c r="N106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.70132743362831862</v>
+      </c>
+      <c r="O106" s="15">
+        <f t="shared" si="12"/>
+        <v>4.325925925925926</v>
+      </c>
+      <c r="P106" s="15">
+        <f t="shared" si="12"/>
+        <v>4.4506258692628586E-2</v>
+      </c>
+      <c r="Q106" s="15">
+        <f t="shared" si="12"/>
+        <v>-4.260985352862845E-2</v>
+      </c>
+      <c r="R106" s="15">
+        <f t="shared" si="12"/>
+        <v>-1.0653685674547984</v>
+      </c>
+      <c r="S106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.8085106382978724</v>
+      </c>
+      <c r="T106" s="15">
+        <f t="shared" si="12"/>
+        <v>-2.4705882352941178</v>
+      </c>
+      <c r="U106" s="15">
+        <f t="shared" si="12"/>
+        <v>5.0640000000000001</v>
+      </c>
+      <c r="V106" s="15">
+        <f t="shared" si="12"/>
+        <v>2.0013192612137205</v>
+      </c>
+      <c r="W106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.31296703296703299</v>
+      </c>
+      <c r="X106" s="15">
+        <f t="shared" si="12"/>
+        <v>1.8688419705694179</v>
+      </c>
+      <c r="Y106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.87265834076717219</v>
+      </c>
+      <c r="Z106" s="15">
+        <f t="shared" si="12"/>
+        <v>6.5380493033226239E-2</v>
+      </c>
+      <c r="AA106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.84149340487368662</v>
+      </c>
+      <c r="AB106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.82572538545586993</v>
+      </c>
+      <c r="AC106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.37826245968680383</v>
+      </c>
+      <c r="AD106" s="15">
+        <f t="shared" si="12"/>
+        <v>7.5650118203309802E-2</v>
+      </c>
+      <c r="AE106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.11908499663601702</v>
+      </c>
+      <c r="AF106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.39835671342685375</v>
+      </c>
+      <c r="AG106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.25082404196164976</v>
+      </c>
+      <c r="AH106" s="15">
+        <f t="shared" si="12"/>
+        <v>-2.8177366286632477E-2</v>
+      </c>
+      <c r="AI106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.26214987303899373</v>
+      </c>
+      <c r="AJ106" s="15">
+        <f t="shared" si="12"/>
+        <v>-8.1486564464060107E-2</v>
+      </c>
+      <c r="AK106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.24567033414832928</v>
+      </c>
+      <c r="AL106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.26699379813262447</v>
+      </c>
+      <c r="AM106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.19891773261755952</v>
+      </c>
+      <c r="AN106" s="44">
+        <v>93510000000</v>
+      </c>
+      <c r="AO106" s="44">
+        <v>104300000000</v>
+      </c>
+      <c r="AP106" s="44">
+        <v>112700000000</v>
+      </c>
+      <c r="AQ106" s="44">
+        <v>119200000000</v>
+      </c>
+      <c r="AR106" s="44">
+        <v>130800000000</v>
+      </c>
+      <c r="AS106" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="AT106" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU106" s="55">
         <f>(SUM(AN4:AR4)/5)</f>
-        <v>5.3418536389238838E-2</v>
+        <v>5.6615388357822052E-2</v>
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="13"/>
-      <c r="AB107" s="13"/>
-      <c r="AC107" s="13"/>
-      <c r="AD107" s="13"/>
-      <c r="AE107" s="13"/>
-      <c r="AF107" s="13"/>
-      <c r="AG107" s="13"/>
-      <c r="AH107" s="13"/>
-      <c r="AI107" s="13"/>
-      <c r="AJ107" s="13"/>
-      <c r="AK107" s="13"/>
-      <c r="AL107" s="13"/>
-      <c r="AM107" s="13"/>
-      <c r="AN107" s="41"/>
-      <c r="AO107" s="41"/>
-      <c r="AP107" s="41"/>
-      <c r="AQ107" s="41"/>
-      <c r="AR107" s="44">
-        <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>2172140103067.5793</v>
-      </c>
-      <c r="AS107" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="AT107" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="AU107" s="47">
+      <c r="A107" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F107" s="1">
+        <v>268300000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>739600000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>-89600000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>688800000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>-874900000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>577408000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>-399000000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>452000000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>135000000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>719000000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>751000000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>719000000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>-47000000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>-85000000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>125000000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>758000000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>2275000000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>1563000000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>4484000000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>8397000000</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>8946000000</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>16474000000</v>
+      </c>
+      <c r="AB107" s="1">
+        <v>30077000000</v>
+      </c>
+      <c r="AC107" s="1">
+        <v>41454000000</v>
+      </c>
+      <c r="AD107" s="1">
+        <v>44590000000</v>
+      </c>
+      <c r="AE107" s="1">
+        <v>49900000000</v>
+      </c>
+      <c r="AF107" s="1">
+        <v>69778000000</v>
+      </c>
+      <c r="AG107" s="1">
+        <v>52276000000</v>
+      </c>
+      <c r="AH107" s="1">
+        <v>50803000000</v>
+      </c>
+      <c r="AI107" s="1">
+        <v>64121000000</v>
+      </c>
+      <c r="AJ107" s="1">
+        <v>58896000000</v>
+      </c>
+      <c r="AK107" s="1">
+        <v>73365000000</v>
+      </c>
+      <c r="AL107" s="1">
+        <v>92953000000</v>
+      </c>
+      <c r="AM107" s="1">
+        <v>111443000000</v>
+      </c>
+      <c r="AN107" s="29"/>
+      <c r="AO107" s="29"/>
+      <c r="AP107" s="29"/>
+      <c r="AQ107" s="29"/>
+      <c r="AR107" s="30">
+        <f>AR105*(1+AU107)/(AU108-AU107)</f>
+        <v>1992468240813.8347</v>
+      </c>
+      <c r="AS107" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT107" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU107" s="57">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="44">
-        <f t="shared" ref="AN108:AP108" si="10">AN107+AN106</f>
-        <v>117396121950.82594</v>
-      </c>
-      <c r="AO108" s="44">
-        <f t="shared" si="10"/>
-        <v>123667250963.21165</v>
-      </c>
-      <c r="AP108" s="44">
-        <f t="shared" si="10"/>
-        <v>130273374508.9471</v>
-      </c>
-      <c r="AQ108" s="44">
-        <f>AQ107+AQ106</f>
-        <v>137232387505.70222</v>
-      </c>
-      <c r="AR108" s="44">
-        <f>AR107+AR106</f>
-        <v>2316703243859.0371</v>
-      </c>
-      <c r="AS108" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="AT108" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="AU108" s="49">
+      <c r="AN108" s="30">
+        <f t="shared" ref="AN108:AQ108" si="13">AN107+AN105</f>
+        <v>107435466212.66307</v>
+      </c>
+      <c r="AO108" s="30">
+        <f t="shared" si="13"/>
+        <v>113517966855.69666</v>
+      </c>
+      <c r="AP108" s="30">
+        <f t="shared" si="13"/>
+        <v>119944830634.82228</v>
+      </c>
+      <c r="AQ108" s="30">
+        <f t="shared" si="13"/>
+        <v>126735553802.72592</v>
+      </c>
+      <c r="AR108" s="30">
+        <f>AR107+AR105</f>
+        <v>2126378977213.8457</v>
+      </c>
+      <c r="AS108" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT108" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU108" s="55">
         <f>AU105</f>
-        <v>9.3217155560998397E-2</v>
+        <v>9.3888678874975262E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="59" t="s">
-        <v>147</v>
-      </c>
-      <c r="AO109" s="60"/>
+      <c r="AN109" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO109" s="65"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="AO110" s="38">
+      <c r="AN110" s="59" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO110" s="30">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>1890324495565.5496</v>
+        <v>1730839901692.3357</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="AO111" s="38">
+      <c r="AN111" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO111" s="30">
         <f>AM40</f>
         <v>48304000000</v>
       </c>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="AO112" s="38">
+      <c r="AN112" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="AO112" s="30">
         <f>AU99</f>
         <v>120069000000</v>
       </c>
     </row>
     <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="AO113" s="38">
+      <c r="AN113" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO113" s="30">
         <f>AO110+AO111-AO112</f>
-        <v>1818559495565.5496</v>
+        <v>1659074901692.3357</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO114" s="51">
+      <c r="AN114" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO114" s="59">
         <f>AM34*(1+(5*AS16))</f>
         <v>12320235482.186365</v>
       </c>
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="AO115" s="58">
+      <c r="AN115" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO115" s="61">
         <f>AO113/AO114</f>
-        <v>147.60752732323795</v>
+        <v>134.66259667610785</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="AO116" s="53" cm="1">
+      <c r="AN116" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO116" s="62" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price",TRUE)</f>
-        <v>187</v>
+        <v>190.68</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="AO117" s="55">
+      <c r="AN117" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO117" s="63">
         <f>(AO115/AO116)-1</f>
-        <v>-0.21065493410033187</v>
+        <v>-0.29377702603257894</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="AO118" s="56" t="str">
+      <c r="AN118" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO118" s="64" t="str">
         <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -16734,8 +17093,9 @@
     <hyperlink ref="AM36" r:id="rId76" tooltip="https://www.sec.gov/Archives/edgar/data/320193/000032019322000108/0000320193-22-000108-index.htm" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
     <hyperlink ref="AM74" r:id="rId77" tooltip="https://www.sec.gov/Archives/edgar/data/320193/000032019322000108/0000320193-22-000108-index.htm" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
     <hyperlink ref="AN1" r:id="rId78" display="https://finbox.com/NASDAQGS:AAPL/explorer/revenue_proj" xr:uid="{700734FC-754D-F542-A811-58205D1BD4D8}"/>
+    <hyperlink ref="AS106" r:id="rId79" xr:uid="{DDF2AB5D-4ECD-C04F-9B10-28AD1A34C384}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId79"/>
+  <drawing r:id="rId80"/>
 </worksheet>
 </file>
--- a/Technology/Hardware/Apple.xlsx
+++ b/Technology/Hardware/Apple.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B9FB2B-BABC-5444-B8E3-49C3E2F28C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234C0F44-ED08-5B48-B4ED-9F442D556704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40960" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -922,9 +922,6 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -933,9 +930,6 @@
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1001,6 +995,8 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2395,9 +2391,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="Treasuries"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2406,20 +2400,23 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="My Stocks"/>
-      <sheetName val="Stable Growth"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="Small Caps"/>
+      <sheetName val="Profitable Software"/>
       <sheetName val="Compounders"/>
-      <sheetName val="Private Companies"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.8390000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2430,23 +2427,12 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
-        <row r="8">
-          <cell r="C8">
-            <v>4.0410000000000001E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2572,13 +2558,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>194.48</v>
+    <v>198.23</v>
     <v>124.17</v>
-    <v>1.2943</v>
-    <v>-1.1299999999999999</v>
-    <v>-5.8909999999999995E-3</v>
-    <v>0.21</v>
-    <v>1.101E-3</v>
+    <v>1.2894000000000001</v>
+    <v>0.87</v>
+    <v>4.5140000000000007E-3</v>
+    <v>-0.09</v>
+    <v>-4.6480000000000002E-4</v>
     <v>USD</v>
     <v>Apple Inc. (Apple) designs, manufactures and markets smartphones, personal computers, tablets, wearables and accessories and sells a range of related services. The Company’s products include iPhone, Mac, iPad, AirPods, Apple TV, Apple Watch, Beats products, HomePod, iPod touch and accessories. The Company operates various platforms, including the App Store, which allows customers to discover and download applications and digital content, such as books, music, video, games and podcasts. Apple offers digital content through subscription-based services, including Apple Arcade, Apple Music, Apple News+, Apple TV+ and Apple Fitness+. Apple also offers a range of other services, such as AppleCare, iCloud, Apple Card and Apple Pay. Apple sells its products and resells third-party products in a range of markets, including directly to consumers, small and mid-sized businesses, and education, enterprise and government customers through its retail and online stores and its direct sales force.</v>
     <v>164000</v>
@@ -2586,25 +2572,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Apple Park Way, CUPERTINO, CA, 95014 US</v>
-    <v>192.67</v>
+    <v>194.44</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>45114.999961700778</v>
+    <v>45132.999947742966</v>
     <v>0</v>
-    <v>190.24</v>
-    <v>2999149000000</v>
+    <v>192.91499999999999</v>
+    <v>3045390894000</v>
     <v>APPLE INC.</v>
     <v>APPLE INC.</v>
-    <v>191.41</v>
-    <v>32.527700000000003</v>
-    <v>191.81</v>
-    <v>190.68</v>
-    <v>190.89</v>
+    <v>193.33</v>
+    <v>32.687100000000001</v>
+    <v>192.75</v>
+    <v>193.62</v>
+    <v>193.53</v>
     <v>15728700000</v>
     <v>AAPL</v>
     <v>APPLE INC. (XNAS:AAPL)</v>
-    <v>46814998</v>
-    <v>60840926</v>
+    <v>37283201</v>
+    <v>54542719</v>
     <v>1977</v>
   </rv>
   <rv s="2">
@@ -3192,10 +3178,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AN15" sqref="AN15"/>
+      <selection pane="bottomRight" activeCell="AQ93" sqref="AQ93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3623,152 +3609,152 @@
       <c r="A4" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="B4" s="63"/>
+      <c r="C4" s="64">
         <f>(C3/B3)-1</f>
         <v>-8.5492363029765484E-3</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="64">
         <f>(D3/C3)-1</f>
         <v>0.39917976760082019</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="64">
         <f>(E3/D3)-1</f>
         <v>0.52996880989064676</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="64">
         <f t="shared" ref="F4:AR4" si="0">(F3/E3)-1</f>
         <v>0.29783366900820352</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="64">
         <f t="shared" si="0"/>
         <v>5.1930355791067306E-2</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="64">
         <f t="shared" si="0"/>
         <v>0.13500287852619453</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="64">
         <f t="shared" si="0"/>
         <v>0.12327225462845548</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="64">
         <f t="shared" si="0"/>
         <v>0.1256614689903337</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="64">
         <f t="shared" si="0"/>
         <v>0.15190522752914637</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="64">
         <f t="shared" si="0"/>
         <v>0.20386368197277793</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="64">
         <f t="shared" si="0"/>
         <v>-0.11110106671487974</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="64">
         <f t="shared" si="0"/>
         <v>-0.27987389403030616</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="64">
         <f t="shared" si="0"/>
         <v>-0.16099420985736479</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="64">
         <f t="shared" si="0"/>
         <v>3.2486113448914278E-2</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="64">
         <f t="shared" si="0"/>
         <v>0.30143462667101395</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="64">
         <f t="shared" si="0"/>
         <v>-0.32819741951647252</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="64">
         <f t="shared" si="0"/>
         <v>7.0669401454409808E-2</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="64">
         <f t="shared" si="0"/>
         <v>8.0982236154649945E-2</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="64">
         <f t="shared" si="0"/>
         <v>0.33381665861124543</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="64">
         <f t="shared" si="0"/>
         <v>0.68269114627370464</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="64">
         <f t="shared" si="0"/>
         <v>0.38647620414902017</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="64">
         <f t="shared" si="0"/>
         <v>0.24286823712140815</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="64">
         <f t="shared" si="0"/>
         <v>0.3529534283095892</v>
       </c>
-      <c r="Z4" s="16">
+      <c r="Z4" s="64">
         <f t="shared" si="0"/>
         <v>0.1249422703900982</v>
       </c>
-      <c r="AA4" s="16">
+      <c r="AA4" s="64">
         <f t="shared" si="0"/>
         <v>0.78517667022470383</v>
       </c>
-      <c r="AB4" s="16">
+      <c r="AB4" s="64">
         <f t="shared" si="0"/>
         <v>0.65962437715599842</v>
       </c>
-      <c r="AC4" s="16">
+      <c r="AC4" s="64">
         <f t="shared" si="0"/>
         <v>0.44581474193756976</v>
       </c>
-      <c r="AD4" s="16">
+      <c r="AD4" s="64">
         <f t="shared" si="0"/>
         <v>9.2020855163953197E-2</v>
       </c>
-      <c r="AE4" s="16">
+      <c r="AE4" s="64">
         <f t="shared" si="0"/>
         <v>6.9539523725937524E-2</v>
       </c>
-      <c r="AF4" s="16">
+      <c r="AF4" s="64">
         <f t="shared" si="0"/>
         <v>0.27856341803659834</v>
       </c>
-      <c r="AG4" s="16">
+      <c r="AG4" s="64">
         <f t="shared" si="0"/>
         <v>-7.7342061913013738E-2</v>
       </c>
-      <c r="AH4" s="16">
+      <c r="AH4" s="64">
         <f t="shared" si="0"/>
         <v>6.304518199398057E-2</v>
       </c>
-      <c r="AI4" s="16">
+      <c r="AI4" s="64">
         <f t="shared" si="0"/>
         <v>0.15861957650261305</v>
       </c>
-      <c r="AJ4" s="16">
+      <c r="AJ4" s="64">
         <f t="shared" si="0"/>
         <v>-2.04107758052674E-2</v>
       </c>
-      <c r="AK4" s="16">
+      <c r="AK4" s="64">
         <f t="shared" si="0"/>
         <v>5.5120803769784787E-2</v>
       </c>
-      <c r="AL4" s="16">
+      <c r="AL4" s="64">
         <f t="shared" si="0"/>
         <v>0.33259384733074704</v>
       </c>
-      <c r="AM4" s="16">
+      <c r="AM4" s="64">
         <f t="shared" si="0"/>
         <v>7.7937876041846099E-2</v>
       </c>
@@ -5412,17 +5398,17 @@
         <f>(AM35+AL35+AK35+AJ35+AI35)/5</f>
         <v>-4.9070536893905711E-2</v>
       </c>
-      <c r="AT16" s="26">
+      <c r="AT16" s="31">
         <f>AU101/AM3</f>
-        <v>7.6057216327524291</v>
-      </c>
-      <c r="AU16" s="26">
+        <v>7.7229892221703755</v>
+      </c>
+      <c r="AU16" s="31">
         <f>AU101/AM28</f>
-        <v>30.050689859022274</v>
-      </c>
-      <c r="AV16" s="32">
+        <v>30.514021562478082</v>
+      </c>
+      <c r="AV16" s="33">
         <f>AU101/AM107</f>
-        <v>26.911954990443544</v>
+        <v>27.326892617750779</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -5793,36 +5779,36 @@
       <c r="AM19" s="10">
         <v>133138000000</v>
       </c>
-      <c r="AN19" s="37">
+      <c r="AN19" s="35">
         <v>124800000000</v>
       </c>
-      <c r="AO19" s="37">
+      <c r="AO19" s="35">
         <v>133000000000</v>
       </c>
-      <c r="AP19" s="37">
+      <c r="AP19" s="35">
         <v>142800000000</v>
       </c>
-      <c r="AQ19" s="37">
+      <c r="AQ19" s="35">
         <v>152400000000</v>
       </c>
-      <c r="AR19" s="37">
+      <c r="AR19" s="35">
         <v>165700000000</v>
       </c>
-      <c r="AS19" s="27">
+      <c r="AS19" s="26">
         <f>AM40-AM56-AM61</f>
         <v>-71765000000</v>
       </c>
-      <c r="AT19" s="33">
+      <c r="AT19" s="31">
         <f>AU101/AN3</f>
-        <v>7.8041868332032269</v>
-      </c>
-      <c r="AU19" s="34">
+        <v>7.924514426229508</v>
+      </c>
+      <c r="AU19" s="32">
         <f>AO116/AN31</f>
-        <v>31.78</v>
-      </c>
-      <c r="AV19" s="35">
+        <v>32.270000000000003</v>
+      </c>
+      <c r="AV19" s="33">
         <f>AU101/AN106</f>
-        <v>32.073029622500265</v>
+        <v>32.567542444658322</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6117,23 +6103,23 @@
       <c r="AM21" s="2">
         <v>0.33760000000000001</v>
       </c>
-      <c r="AN21" s="38">
+      <c r="AN21" s="36">
         <f>AN19/AN3</f>
         <v>0.32474629195940674</v>
       </c>
-      <c r="AO21" s="38">
+      <c r="AO21" s="36">
         <f t="shared" ref="AO21:AR21" si="4">AO19/AO3</f>
         <v>0.32360097323600973</v>
       </c>
-      <c r="AP21" s="38">
+      <c r="AP21" s="36">
         <f t="shared" si="4"/>
         <v>0.32125984251968503</v>
       </c>
-      <c r="AQ21" s="38">
+      <c r="AQ21" s="36">
         <f t="shared" si="4"/>
         <v>0.32172260924635848</v>
       </c>
-      <c r="AR21" s="38">
+      <c r="AR21" s="36">
         <f t="shared" si="4"/>
         <v>0.32037896365042534</v>
       </c>
@@ -6262,13 +6248,13 @@
       <c r="AM22" s="10">
         <v>119437000000</v>
       </c>
-      <c r="AU22" s="42">
+      <c r="AU22" s="40">
         <f>(-1*AM98)/AU101</f>
-        <v>4.9484036971821008E-3</v>
-      </c>
-      <c r="AV22" s="36">
+        <v>4.8732660326920906E-3</v>
+      </c>
+      <c r="AV22" s="34">
         <f>AM107/AU101</f>
-        <v>3.7158207211445644E-2</v>
+        <v>3.6593988712438831E-2</v>
       </c>
     </row>
     <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -6984,19 +6970,19 @@
       <c r="AM28" s="11">
         <v>99803000000</v>
       </c>
-      <c r="AN28" s="39">
+      <c r="AN28" s="37">
         <v>94450000000</v>
       </c>
-      <c r="AO28" s="39">
+      <c r="AO28" s="37">
         <v>100600000000</v>
       </c>
-      <c r="AP28" s="39">
+      <c r="AP28" s="37">
         <v>109400000000</v>
       </c>
-      <c r="AQ28" s="39">
+      <c r="AQ28" s="37">
         <v>121900000000</v>
       </c>
-      <c r="AR28" s="39">
+      <c r="AR28" s="37">
         <v>132800000000</v>
       </c>
     </row>
@@ -7293,23 +7279,23 @@
       <c r="AM30" s="2">
         <v>0.25309999999999999</v>
       </c>
-      <c r="AN30" s="40">
+      <c r="AN30" s="38">
         <f>AN28/AN3</f>
         <v>0.24577153265677856</v>
       </c>
-      <c r="AO30" s="40">
+      <c r="AO30" s="38">
         <f t="shared" ref="AO30:AR30" si="6">AO28/AO3</f>
         <v>0.24476885644768856</v>
       </c>
-      <c r="AP30" s="40">
+      <c r="AP30" s="38">
         <f t="shared" si="6"/>
         <v>0.24611923509561304</v>
       </c>
-      <c r="AQ30" s="40">
+      <c r="AQ30" s="38">
         <f t="shared" si="6"/>
         <v>0.25733586658222501</v>
       </c>
-      <c r="AR30" s="40">
+      <c r="AR30" s="38">
         <f t="shared" si="6"/>
         <v>0.25676720804331016</v>
       </c>
@@ -7432,19 +7418,19 @@
       <c r="AM31" s="12">
         <v>6.15</v>
       </c>
-      <c r="AN31" s="41">
+      <c r="AN31" s="39">
         <v>6</v>
       </c>
-      <c r="AO31" s="41">
+      <c r="AO31" s="39">
         <v>6.4</v>
       </c>
-      <c r="AP31" s="41">
+      <c r="AP31" s="39">
         <v>6.96</v>
       </c>
-      <c r="AQ31" s="41">
+      <c r="AQ31" s="39">
         <v>7.75</v>
       </c>
-      <c r="AR31" s="41">
+      <c r="AR31" s="39">
         <v>8.44</v>
       </c>
     </row>
@@ -13954,10 +13940,10 @@
       <c r="AM85" s="1">
         <v>478000000</v>
       </c>
-      <c r="AT85" s="45" t="s">
+      <c r="AT85" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="AU85" s="46">
+      <c r="AU85" s="44">
         <f>AM17</f>
         <v>2931000000</v>
       </c>
@@ -14080,10 +14066,10 @@
       <c r="AM86" s="1">
         <v>111000000</v>
       </c>
-      <c r="AT86" s="45" t="s">
+      <c r="AT86" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="AU86" s="46">
+      <c r="AU86" s="44">
         <f>AM56</f>
         <v>21110000000</v>
       </c>
@@ -14206,10 +14192,10 @@
       <c r="AM87" s="10">
         <v>122151000000</v>
       </c>
-      <c r="AT87" s="45" t="s">
+      <c r="AT87" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="AU87" s="46">
+      <c r="AU87" s="44">
         <f>AM61</f>
         <v>98959000000</v>
       </c>
@@ -14332,10 +14318,10 @@
       <c r="AM88" s="1">
         <v>-10708000000</v>
       </c>
-      <c r="AT88" s="47" t="s">
+      <c r="AT88" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="AU88" s="48">
+      <c r="AU88" s="46">
         <f>AU85/(AU86+AU87)</f>
         <v>2.4410963695874872E-2</v>
       </c>
@@ -14496,10 +14482,10 @@
         <f t="shared" si="9"/>
         <v>2.7155058732831552E-2</v>
       </c>
-      <c r="AT89" s="45" t="s">
+      <c r="AT89" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="AU89" s="46">
+      <c r="AU89" s="44">
         <f>AM27</f>
         <v>19300000000</v>
       </c>
@@ -14622,10 +14608,10 @@
       <c r="AM90" s="1">
         <v>-306000000</v>
       </c>
-      <c r="AT90" s="45" t="s">
+      <c r="AT90" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="AU90" s="46">
+      <c r="AU90" s="44">
         <f>AM25</f>
         <v>119103000000</v>
       </c>
@@ -14748,10 +14734,10 @@
       <c r="AM91" s="1">
         <v>-76923000000</v>
       </c>
-      <c r="AT91" s="47" t="s">
+      <c r="AT91" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="AU91" s="48">
+      <c r="AU91" s="46">
         <f>AU89/AU90</f>
         <v>0.16204461684424407</v>
       </c>
@@ -14874,10 +14860,10 @@
       <c r="AM92" s="1">
         <v>67363000000</v>
       </c>
-      <c r="AT92" s="47" t="s">
+      <c r="AT92" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="AU92" s="48">
+      <c r="AU92" s="46">
         <f>AU88*(1-AU91)</f>
         <v>2.0455298436978075E-2</v>
       </c>
@@ -15123,12 +15109,12 @@
       <c r="AM94" s="10">
         <v>-22354000000</v>
       </c>
-      <c r="AT94" s="45" t="s">
+      <c r="AT94" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="AU94" s="49">
+      <c r="AU94" s="47">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0410000000000001E-2</v>
+        <v>3.8390000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15249,12 +15235,12 @@
       <c r="AM95" s="1">
         <v>-9543000000</v>
       </c>
-      <c r="AT95" s="45" t="s">
+      <c r="AT95" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="AU95" s="50" cm="1">
+      <c r="AU95" s="48" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>1.2943</v>
+        <v>1.2894000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15375,10 +15361,10 @@
       <c r="AM96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT96" s="45" t="s">
+      <c r="AT96" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="AU96" s="49">
+      <c r="AU96" s="47">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -15500,12 +15486,12 @@
       <c r="AM97" s="1">
         <v>-89402000000</v>
       </c>
-      <c r="AT97" s="47" t="s">
+      <c r="AT97" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="AU97" s="48">
+      <c r="AU97" s="46">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>9.6828537000000006E-2</v>
+        <v>9.7199534000000004E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15749,10 +15735,10 @@
       <c r="AM99" s="1">
         <v>3037000000</v>
       </c>
-      <c r="AT99" s="45" t="s">
+      <c r="AT99" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="AU99" s="46">
+      <c r="AU99" s="44">
         <f>AU86+AU87</f>
         <v>120069000000</v>
       </c>
@@ -15875,12 +15861,12 @@
       <c r="AM100" s="10">
         <v>-110749000000</v>
       </c>
-      <c r="AT100" s="47" t="s">
+      <c r="AT100" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="AU100" s="48">
+      <c r="AU100" s="46">
         <f>AU99/AU103</f>
-        <v>3.849330184680904E-2</v>
+        <v>3.793098128571646E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16001,12 +15987,12 @@
       <c r="AM101" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT101" s="45" t="s">
+      <c r="AT101" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="AU101" s="30" cm="1">
+      <c r="AU101" s="29" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>2999149000000</v>
+        <v>3045390894000</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16127,12 +16113,12 @@
       <c r="AM102" s="10">
         <v>-10952000000</v>
       </c>
-      <c r="AT102" s="47" t="s">
+      <c r="AT102" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="AU102" s="48">
+      <c r="AU102" s="46">
         <f>AU101/AU103</f>
-        <v>0.96150669815319101</v>
+        <v>0.96206901871428352</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16253,12 +16239,12 @@
       <c r="AM103" s="1">
         <v>35929000000</v>
       </c>
-      <c r="AT103" s="47" t="s">
+      <c r="AT103" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="AU103" s="51">
+      <c r="AU103" s="49">
         <f>AU99+AU101</f>
-        <v>3119218000000</v>
+        <v>3165459894000</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16540,35 +16526,35 @@
         <f>(AM22*(1-$AU$91))+AM77+AM88+AM81</f>
         <v>101678877097.97401</v>
       </c>
-      <c r="AN105" s="28">
+      <c r="AN105" s="27">
         <f>AM105*(1+$AU$106)</f>
         <v>107435466212.66307</v>
       </c>
-      <c r="AO105" s="28">
+      <c r="AO105" s="27">
         <f t="shared" ref="AO105:AR105" si="11">AN105*(1+$AU$106)</f>
         <v>113517966855.69666</v>
       </c>
-      <c r="AP105" s="28">
+      <c r="AP105" s="27">
         <f t="shared" si="11"/>
         <v>119944830634.82228</v>
       </c>
-      <c r="AQ105" s="28">
+      <c r="AQ105" s="27">
         <f t="shared" si="11"/>
         <v>126735553802.72592</v>
       </c>
-      <c r="AR105" s="28">
+      <c r="AR105" s="27">
         <f t="shared" si="11"/>
         <v>133910736400.01089</v>
       </c>
-      <c r="AS105" s="29" t="s">
+      <c r="AS105" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="AT105" s="52" t="s">
+      <c r="AT105" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="AU105" s="53">
+      <c r="AU105" s="51">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>9.3888678874975262E-2</v>
+        <v>9.4288549837072411E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16724,34 +16710,34 @@
         <f t="shared" si="12"/>
         <v>0.19891773261755952</v>
       </c>
-      <c r="AN106" s="44">
+      <c r="AN106" s="42">
         <v>93510000000</v>
       </c>
-      <c r="AO106" s="44">
+      <c r="AO106" s="42">
         <v>104300000000</v>
       </c>
-      <c r="AP106" s="44">
+      <c r="AP106" s="42">
         <v>112700000000</v>
       </c>
-      <c r="AQ106" s="44">
+      <c r="AQ106" s="42">
         <v>119200000000</v>
       </c>
-      <c r="AR106" s="44">
+      <c r="AR106" s="42">
         <v>130800000000</v>
       </c>
-      <c r="AS106" s="29" t="s">
+      <c r="AS106" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="AT106" s="54" t="s">
+      <c r="AT106" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="AU106" s="55">
+      <c r="AU106" s="53">
         <f>(SUM(AN4:AR4)/5)</f>
         <v>5.6615388357822052E-2</v>
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="43" t="s">
+      <c r="A107" s="41" t="s">
         <v>164</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -16868,54 +16854,54 @@
       <c r="AM107" s="1">
         <v>111443000000</v>
       </c>
-      <c r="AN107" s="29"/>
-      <c r="AO107" s="29"/>
-      <c r="AP107" s="29"/>
-      <c r="AQ107" s="29"/>
-      <c r="AR107" s="30">
+      <c r="AN107" s="28"/>
+      <c r="AO107" s="28"/>
+      <c r="AP107" s="28"/>
+      <c r="AQ107" s="28"/>
+      <c r="AR107" s="29">
         <f>AR105*(1+AU107)/(AU108-AU107)</f>
-        <v>1992468240813.8347</v>
-      </c>
-      <c r="AS107" s="31" t="s">
+        <v>1980969512751.6123</v>
+      </c>
+      <c r="AS107" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="AT107" s="56" t="s">
+      <c r="AT107" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="AU107" s="57">
+      <c r="AU107" s="55">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="30">
+      <c r="AN108" s="29">
         <f t="shared" ref="AN108:AQ108" si="13">AN107+AN105</f>
         <v>107435466212.66307</v>
       </c>
-      <c r="AO108" s="30">
+      <c r="AO108" s="29">
         <f t="shared" si="13"/>
         <v>113517966855.69666</v>
       </c>
-      <c r="AP108" s="30">
+      <c r="AP108" s="29">
         <f t="shared" si="13"/>
         <v>119944830634.82228</v>
       </c>
-      <c r="AQ108" s="30">
+      <c r="AQ108" s="29">
         <f t="shared" si="13"/>
         <v>126735553802.72592</v>
       </c>
-      <c r="AR108" s="30">
+      <c r="AR108" s="29">
         <f>AR107+AR105</f>
-        <v>2126378977213.8457</v>
-      </c>
-      <c r="AS108" s="31" t="s">
+        <v>2114880249151.6233</v>
+      </c>
+      <c r="AS108" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="AT108" s="58" t="s">
+      <c r="AT108" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="AU108" s="55">
+      <c r="AU108" s="53">
         <f>AU105</f>
-        <v>9.3888678874975262E-2</v>
+        <v>9.4288549837072411E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16925,82 +16911,82 @@
       <c r="AO109" s="65"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="59" t="s">
+      <c r="AN110" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="AO110" s="30">
+      <c r="AO110" s="29">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>1730839901692.3357</v>
+        <v>1720698231346.7925</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="59" t="s">
+      <c r="AN111" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="AO111" s="30">
+      <c r="AO111" s="29">
         <f>AM40</f>
         <v>48304000000</v>
       </c>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="59" t="s">
+      <c r="AN112" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="AO112" s="30">
+      <c r="AO112" s="29">
         <f>AU99</f>
         <v>120069000000</v>
       </c>
     </row>
     <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="59" t="s">
+      <c r="AN113" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="AO113" s="30">
+      <c r="AO113" s="29">
         <f>AO110+AO111-AO112</f>
-        <v>1659074901692.3357</v>
+        <v>1648933231346.7925</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="59" t="s">
+      <c r="AN114" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="AO114" s="59">
+      <c r="AO114" s="57">
         <f>AM34*(1+(5*AS16))</f>
         <v>12320235482.186365</v>
       </c>
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="60" t="s">
+      <c r="AN115" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="AO115" s="61">
+      <c r="AO115" s="59">
         <f>AO113/AO114</f>
-        <v>134.66259667610785</v>
+        <v>133.83942488201293</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="59" t="s">
+      <c r="AN116" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="AO116" s="62" cm="1">
+      <c r="AO116" s="60" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price",TRUE)</f>
-        <v>190.68</v>
+        <v>193.62</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="60" t="s">
+      <c r="AN117" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="AO117" s="63">
+      <c r="AO117" s="61">
         <f>(AO115/AO116)-1</f>
-        <v>-0.29377702603257894</v>
+        <v>-0.30875206651165721</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="60" t="s">
+      <c r="AN118" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="AO118" s="64" t="str">
+      <c r="AO118" s="62" t="str">
         <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Hardware/Apple.xlsx
+++ b/Technology/Hardware/Apple.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234C0F44-ED08-5B48-B4ED-9F442D556704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D531E7-4443-0646-AA7C-C0E5CE686103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="170">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -558,9 +558,6 @@
     <t>Dividend Yield</t>
   </si>
   <si>
-    <t>FCF Yield</t>
-  </si>
-  <si>
     <t>Unlevered FCF</t>
   </si>
   <si>
@@ -574,6 +571,18 @@
   </si>
   <si>
     <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> `</t>
+  </si>
+  <si>
+    <t>5Y Fwd Income CAGR</t>
+  </si>
+  <si>
+    <t>Forward FCF Yield</t>
+  </si>
+  <si>
+    <t>5Y Fwd FCF CAGR</t>
   </si>
 </sst>
 </file>
@@ -589,7 +598,7 @@
     <numFmt numFmtId="169" formatCode="0.0"/>
     <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -701,6 +710,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -875,7 +891,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -925,12 +941,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -954,60 +964,118 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1098,15 +1166,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.353277612214049E-2"/>
-          <c:y val="0.16406984500043176"/>
-          <c:w val="0.86658117862321549"/>
-          <c:h val="0.65582659645916608"/>
+          <c:x val="0.10417161716171616"/>
+          <c:y val="0.15926982481333493"/>
+          <c:w val="0.83114191419141914"/>
+          <c:h val="0.59576414126244603"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1155,12 +1223,150 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AR$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$AM$3</c:f>
+              <c:f>'Sheet 1'!$B$3:$AR$3</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1918300000</c:v>
                 </c:pt>
@@ -1274,13 +1480,28 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>394328000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>383000000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>406100000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>429800000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>485700000000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>526700000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CB8F-0B4F-810F-B7C7D0957E0C}"/>
+              <c16:uniqueId val="{00000000-F29A-B64F-954A-B00561ECDE8F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1289,11 +1510,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1331,132 +1552,285 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AR$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$AM$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$AR$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
-                  <c:v>161800000</c:v>
+                  <c:v>61200000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>360900000</c:v>
+                  <c:v>154000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>480900000</c:v>
+                  <c:v>217500000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>733900000</c:v>
+                  <c:v>400300000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>869100000</c:v>
+                  <c:v>454000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>981200000</c:v>
+                  <c:v>474900000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>704100000</c:v>
+                  <c:v>309800000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1072700000</c:v>
+                  <c:v>530400000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>305800000</c:v>
+                  <c:v>86600000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>707897000</c:v>
+                  <c:v>310178000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>849000000</c:v>
+                  <c:v>424000000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1079000000</c:v>
+                  <c:v>-816000000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-856000000</c:v>
+                  <c:v>-1045000000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>502000000</c:v>
+                  <c:v>309000000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>808000000</c:v>
+                  <c:v>601000000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1197000000</c:v>
+                  <c:v>786000000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>78000000</c:v>
+                  <c:v>-25000000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>216000000</c:v>
+                  <c:v>65000000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>214000000</c:v>
+                  <c:v>69000000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>536000000</c:v>
+                  <c:v>276000000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1994000000</c:v>
+                  <c:v>1335000000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3043000000</c:v>
+                  <c:v>1989000000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5325000000</c:v>
+                  <c:v>3496000000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7368000000</c:v>
+                  <c:v>4834000000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8687000000</c:v>
+                  <c:v>5704000000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>19567000000</c:v>
+                  <c:v>14013000000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>36019000000</c:v>
+                  <c:v>25922000000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>59040000000</c:v>
+                  <c:v>41733000000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>57048000000</c:v>
+                  <c:v>37037000000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>61813000000</c:v>
+                  <c:v>39510000000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>84505000000</c:v>
+                  <c:v>53394000000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>73333000000</c:v>
+                  <c:v>45687000000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>76569000000</c:v>
+                  <c:v>48351000000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>87046000000</c:v>
+                  <c:v>59531000000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>81860000000</c:v>
+                  <c:v>55256000000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>81020000000</c:v>
+                  <c:v>57411000000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>123136000000</c:v>
+                  <c:v>94680000000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>133138000000</c:v>
+                  <c:v>99803000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>95970000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>100700000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>108700000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>119700000000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>131600000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CB8F-0B4F-810F-B7C7D0957E0C}"/>
+              <c16:uniqueId val="{00000001-F29A-B64F-954A-B00561ECDE8F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1507,12 +1881,150 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AR$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$107:$AM$107</c:f>
+              <c:f>'Sheet 1'!$B$107:$AR$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1626,13 +2138,28 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>111443000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>94160000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>105200000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>115200000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>126400000000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>136000000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CB8F-0B4F-810F-B7C7D0957E0C}"/>
+              <c16:uniqueId val="{00000002-F29A-B64F-954A-B00561ECDE8F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1644,13 +2171,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="117189087"/>
-        <c:axId val="117190815"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="223847904"/>
+        <c:axId val="223850176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="117189087"/>
+        <c:axId val="223847904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1678,7 +2205,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1690,7 +2217,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117190815"/>
+        <c:crossAx val="223850176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1698,7 +2225,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117190815"/>
+        <c:axId val="223850176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1747,7 +2274,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117189087"/>
+        <c:crossAx val="223847904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1765,10 +2292,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36360003697572496"/>
-          <c:y val="0.91632114268523956"/>
-          <c:w val="0.30470865756448268"/>
-          <c:h val="4.3867178653466628E-2"/>
+          <c:x val="0.34336872742392349"/>
+          <c:y val="0.88463378319391039"/>
+          <c:w val="0.31499520294736266"/>
+          <c:h val="6.0959581093868218E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1875,7 +2402,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2113,7 +2640,6 @@
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2348,22 +2874,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>16329</xdr:rowOff>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>1596570</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>199570</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76F9FE37-ADA7-EA5D-576A-DA14D6719B66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28BF2137-4C69-AF21-E249-5FBC4649C40B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2391,48 +2917,40 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
+      <sheetName val="Technology - Software"/>
+      <sheetName val="Technology - Hardware"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Growth"/>
+      <sheetName val="ROIC"/>
       <sheetName val="Treasuries"/>
-      <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
-      <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
-      <sheetName val="Healthcare"/>
-      <sheetName val="Industrials"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="C8">
-            <v>3.8390000000000001E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6">
+        <row r="8">
+          <cell r="C8">
+            <v>4.7160000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2560,11 +3078,11 @@
     <v>Powered by Refinitiv</v>
     <v>198.23</v>
     <v>124.17</v>
-    <v>1.2894000000000001</v>
-    <v>0.87</v>
-    <v>4.5140000000000007E-3</v>
-    <v>-0.09</v>
-    <v>-4.6480000000000002E-4</v>
+    <v>1.3077000000000001</v>
+    <v>2.58</v>
+    <v>1.4750000000000001E-2</v>
+    <v>0.22</v>
+    <v>1.24E-3</v>
     <v>USD</v>
     <v>Apple Inc. (Apple) designs, manufactures and markets smartphones, personal computers, tablets, wearables and accessories and sells a range of related services. The Company’s products include iPhone, Mac, iPad, AirPods, Apple TV, Apple Watch, Beats products, HomePod, iPod touch and accessories. The Company operates various platforms, including the App Store, which allows customers to discover and download applications and digital content, such as books, music, video, games and podcasts. Apple offers digital content through subscription-based services, including Apple Arcade, Apple Music, Apple News+, Apple TV+ and Apple Fitness+. Apple also offers a range of other services, such as AppleCare, iCloud, Apple Card and Apple Pay. Apple sells its products and resells third-party products in a range of markets, including directly to consumers, small and mid-sized businesses, and education, enterprise and government customers through its retail and online stores and its direct sales force.</v>
     <v>164000</v>
@@ -2572,25 +3090,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Apple Park Way, CUPERTINO, CA, 95014 US</v>
-    <v>194.44</v>
+    <v>177.99</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>45132.999947742966</v>
+    <v>45205.999987580471</v>
     <v>0</v>
-    <v>192.91499999999999</v>
-    <v>3045390894000</v>
+    <v>173.18</v>
+    <v>2774920000000</v>
     <v>APPLE INC.</v>
     <v>APPLE INC.</v>
-    <v>193.33</v>
-    <v>32.687100000000001</v>
-    <v>192.75</v>
-    <v>193.62</v>
-    <v>193.53</v>
-    <v>15728700000</v>
+    <v>173.8</v>
+    <v>29.374099999999999</v>
+    <v>174.91</v>
+    <v>177.49</v>
+    <v>177.71</v>
+    <v>15634230000</v>
     <v>AAPL</v>
     <v>APPLE INC. (XNAS:AAPL)</v>
-    <v>37283201</v>
-    <v>54542719</v>
+    <v>57266675</v>
+    <v>64079025</v>
     <v>1977</v>
   </rv>
   <rv s="2">
@@ -3175,13 +3693,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV118"/>
+  <dimension ref="A1:AV119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AQ93" sqref="AQ93"/>
+      <selection pane="bottomRight" activeCell="AS92" sqref="AS92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3578,19 +4096,19 @@
         <v>394328000000</v>
       </c>
       <c r="AN3" s="24">
-        <v>384300000000</v>
+        <v>383000000000</v>
       </c>
       <c r="AO3" s="24">
-        <v>411000000000</v>
+        <v>406100000000</v>
       </c>
       <c r="AP3" s="24">
-        <v>444500000000</v>
+        <v>429800000000</v>
       </c>
       <c r="AQ3" s="24">
-        <v>473700000000</v>
+        <v>485700000000</v>
       </c>
       <c r="AR3" s="24">
-        <v>517200000000</v>
+        <v>526700000000</v>
       </c>
       <c r="AS3" s="18" t="s">
         <v>107</v>
@@ -3609,174 +4127,174 @@
       <c r="A4" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64">
+      <c r="B4" s="43"/>
+      <c r="C4" s="44">
         <f>(C3/B3)-1</f>
         <v>-8.5492363029765484E-3</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="44">
         <f>(D3/C3)-1</f>
         <v>0.39917976760082019</v>
       </c>
-      <c r="E4" s="64">
+      <c r="E4" s="44">
         <f>(E3/D3)-1</f>
         <v>0.52996880989064676</v>
       </c>
-      <c r="F4" s="64">
+      <c r="F4" s="44">
         <f t="shared" ref="F4:AR4" si="0">(F3/E3)-1</f>
         <v>0.29783366900820352</v>
       </c>
-      <c r="G4" s="64">
+      <c r="G4" s="44">
         <f t="shared" si="0"/>
         <v>5.1930355791067306E-2</v>
       </c>
-      <c r="H4" s="64">
+      <c r="H4" s="44">
         <f t="shared" si="0"/>
         <v>0.13500287852619453</v>
       </c>
-      <c r="I4" s="64">
+      <c r="I4" s="44">
         <f t="shared" si="0"/>
         <v>0.12327225462845548</v>
       </c>
-      <c r="J4" s="64">
+      <c r="J4" s="44">
         <f t="shared" si="0"/>
         <v>0.1256614689903337</v>
       </c>
-      <c r="K4" s="64">
+      <c r="K4" s="44">
         <f t="shared" si="0"/>
         <v>0.15190522752914637</v>
       </c>
-      <c r="L4" s="64">
+      <c r="L4" s="44">
         <f t="shared" si="0"/>
         <v>0.20386368197277793</v>
       </c>
-      <c r="M4" s="64">
+      <c r="M4" s="44">
         <f t="shared" si="0"/>
         <v>-0.11110106671487974</v>
       </c>
-      <c r="N4" s="64">
+      <c r="N4" s="44">
         <f t="shared" si="0"/>
         <v>-0.27987389403030616</v>
       </c>
-      <c r="O4" s="64">
+      <c r="O4" s="44">
         <f t="shared" si="0"/>
         <v>-0.16099420985736479</v>
       </c>
-      <c r="P4" s="64">
+      <c r="P4" s="44">
         <f t="shared" si="0"/>
         <v>3.2486113448914278E-2</v>
       </c>
-      <c r="Q4" s="64">
+      <c r="Q4" s="44">
         <f t="shared" si="0"/>
         <v>0.30143462667101395</v>
       </c>
-      <c r="R4" s="64">
+      <c r="R4" s="44">
         <f t="shared" si="0"/>
         <v>-0.32819741951647252</v>
       </c>
-      <c r="S4" s="64">
+      <c r="S4" s="44">
         <f t="shared" si="0"/>
         <v>7.0669401454409808E-2</v>
       </c>
-      <c r="T4" s="64">
+      <c r="T4" s="44">
         <f t="shared" si="0"/>
         <v>8.0982236154649945E-2</v>
       </c>
-      <c r="U4" s="64">
+      <c r="U4" s="44">
         <f t="shared" si="0"/>
         <v>0.33381665861124543</v>
       </c>
-      <c r="V4" s="64">
+      <c r="V4" s="44">
         <f t="shared" si="0"/>
         <v>0.68269114627370464</v>
       </c>
-      <c r="W4" s="64">
+      <c r="W4" s="44">
         <f t="shared" si="0"/>
         <v>0.38647620414902017</v>
       </c>
-      <c r="X4" s="64">
+      <c r="X4" s="44">
         <f t="shared" si="0"/>
         <v>0.24286823712140815</v>
       </c>
-      <c r="Y4" s="64">
+      <c r="Y4" s="44">
         <f t="shared" si="0"/>
         <v>0.3529534283095892</v>
       </c>
-      <c r="Z4" s="64">
+      <c r="Z4" s="44">
         <f t="shared" si="0"/>
         <v>0.1249422703900982</v>
       </c>
-      <c r="AA4" s="64">
+      <c r="AA4" s="44">
         <f t="shared" si="0"/>
         <v>0.78517667022470383</v>
       </c>
-      <c r="AB4" s="64">
+      <c r="AB4" s="44">
         <f t="shared" si="0"/>
         <v>0.65962437715599842</v>
       </c>
-      <c r="AC4" s="64">
+      <c r="AC4" s="44">
         <f t="shared" si="0"/>
         <v>0.44581474193756976</v>
       </c>
-      <c r="AD4" s="64">
+      <c r="AD4" s="44">
         <f t="shared" si="0"/>
         <v>9.2020855163953197E-2</v>
       </c>
-      <c r="AE4" s="64">
+      <c r="AE4" s="44">
         <f t="shared" si="0"/>
         <v>6.9539523725937524E-2</v>
       </c>
-      <c r="AF4" s="64">
+      <c r="AF4" s="44">
         <f t="shared" si="0"/>
         <v>0.27856341803659834</v>
       </c>
-      <c r="AG4" s="64">
+      <c r="AG4" s="44">
         <f t="shared" si="0"/>
         <v>-7.7342061913013738E-2</v>
       </c>
-      <c r="AH4" s="64">
+      <c r="AH4" s="44">
         <f t="shared" si="0"/>
         <v>6.304518199398057E-2</v>
       </c>
-      <c r="AI4" s="64">
+      <c r="AI4" s="44">
         <f t="shared" si="0"/>
         <v>0.15861957650261305</v>
       </c>
-      <c r="AJ4" s="64">
+      <c r="AJ4" s="44">
         <f t="shared" si="0"/>
         <v>-2.04107758052674E-2</v>
       </c>
-      <c r="AK4" s="64">
+      <c r="AK4" s="44">
         <f t="shared" si="0"/>
         <v>5.5120803769784787E-2</v>
       </c>
-      <c r="AL4" s="64">
+      <c r="AL4" s="44">
         <f t="shared" si="0"/>
         <v>0.33259384733074704</v>
       </c>
-      <c r="AM4" s="64">
+      <c r="AM4" s="44">
         <f t="shared" si="0"/>
         <v>7.7937876041846099E-2</v>
       </c>
       <c r="AN4" s="16">
         <f t="shared" si="0"/>
-        <v>-2.5430605992980415E-2</v>
+        <v>-2.8727353877989859E-2</v>
       </c>
       <c r="AO4" s="16">
         <f t="shared" si="0"/>
-        <v>6.9476971116315456E-2</v>
+        <v>6.031331592689293E-2</v>
       </c>
       <c r="AP4" s="16">
         <f t="shared" si="0"/>
-        <v>8.1508515815085225E-2</v>
+        <v>5.8360009849790728E-2</v>
       </c>
       <c r="AQ4" s="16">
         <f t="shared" si="0"/>
-        <v>6.5691788526434092E-2</v>
+        <v>0.13006049325267566</v>
       </c>
       <c r="AR4" s="16">
         <f t="shared" si="0"/>
-        <v>9.183027232425589E-2</v>
+        <v>8.4414247477867077E-2</v>
       </c>
       <c r="AS4" s="17">
         <f>(AM4+AL4+AK4)/3</f>
@@ -4032,16 +4550,20 @@
       <c r="AM6" s="10">
         <v>170782000000</v>
       </c>
-      <c r="AS6" s="18" t="s">
+      <c r="AN6" s="31">
+        <f>AN3*AN7</f>
+        <v>170511600000</v>
+      </c>
+      <c r="AS6" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="AT6" s="19" t="s">
+      <c r="AT6" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="AU6" s="19" t="s">
+      <c r="AU6" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="AV6" s="19" t="s">
+      <c r="AV6" s="47" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4163,21 +4685,24 @@
       <c r="AM7" s="2">
         <v>0.43309999999999998</v>
       </c>
+      <c r="AN7" s="2">
+        <v>0.44519999999999998</v>
+      </c>
       <c r="AS7" s="17">
-        <f>AM7</f>
-        <v>0.43309999999999998</v>
+        <f>AN7</f>
+        <v>0.44519999999999998</v>
       </c>
       <c r="AT7" s="20">
-        <f>AM21</f>
-        <v>0.33760000000000001</v>
+        <f>AN21</f>
+        <v>0.32715404699738904</v>
       </c>
       <c r="AU7" s="20">
-        <f>AM30</f>
-        <v>0.25309999999999999</v>
+        <f>AN30</f>
+        <v>0.25057441253263707</v>
       </c>
       <c r="AV7" s="20">
-        <f>AM107/AM3</f>
-        <v>0.28261498042238947</v>
+        <f>AN107/AN3</f>
+        <v>0.24584856396866842</v>
       </c>
     </row>
     <row r="8" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -5398,17 +5923,17 @@
         <f>(AM35+AL35+AK35+AJ35+AI35)/5</f>
         <v>-4.9070536893905711E-2</v>
       </c>
-      <c r="AT16" s="31">
-        <f>AU101/AM3</f>
-        <v>7.7229892221703755</v>
-      </c>
-      <c r="AU16" s="31">
-        <f>AU101/AM28</f>
-        <v>30.514021562478082</v>
-      </c>
-      <c r="AV16" s="33">
-        <f>AU101/AM107</f>
-        <v>27.326892617750779</v>
+      <c r="AT16" s="27">
+        <f>AU102/AM3</f>
+        <v>7.0370858777464447</v>
+      </c>
+      <c r="AU16" s="27">
+        <f>AU102/AM28</f>
+        <v>27.803973828442032</v>
+      </c>
+      <c r="AV16" s="29">
+        <f>AU102/AM107</f>
+        <v>24.899903986791454</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -5779,36 +6304,36 @@
       <c r="AM19" s="10">
         <v>133138000000</v>
       </c>
-      <c r="AN19" s="35">
-        <v>124800000000</v>
-      </c>
-      <c r="AO19" s="35">
-        <v>133000000000</v>
-      </c>
-      <c r="AP19" s="35">
-        <v>142800000000</v>
-      </c>
-      <c r="AQ19" s="35">
-        <v>152400000000</v>
-      </c>
-      <c r="AR19" s="35">
-        <v>165700000000</v>
+      <c r="AN19" s="31">
+        <v>125300000000</v>
+      </c>
+      <c r="AO19" s="31">
+        <v>133800000000</v>
+      </c>
+      <c r="AP19" s="31">
+        <v>145900000000</v>
+      </c>
+      <c r="AQ19" s="31">
+        <v>156100000000</v>
+      </c>
+      <c r="AR19" s="31">
+        <v>170900000000</v>
       </c>
       <c r="AS19" s="26">
         <f>AM40-AM56-AM61</f>
         <v>-71765000000</v>
       </c>
-      <c r="AT19" s="31">
-        <f>AU101/AN3</f>
-        <v>7.924514426229508</v>
-      </c>
-      <c r="AU19" s="32">
-        <f>AO116/AN31</f>
-        <v>32.270000000000003</v>
-      </c>
-      <c r="AV19" s="33">
-        <f>AU101/AN106</f>
-        <v>32.567542444658322</v>
+      <c r="AT19" s="27">
+        <f>AU102/AN3</f>
+        <v>7.2452219321148821</v>
+      </c>
+      <c r="AU19" s="28">
+        <f>AO117/AN31</f>
+        <v>29.001633986928105</v>
+      </c>
+      <c r="AV19" s="29">
+        <f>AU102/AN107</f>
+        <v>29.470263381478336</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5966,23 +6491,23 @@
       </c>
       <c r="AN20" s="16">
         <f t="shared" si="3"/>
-        <v>-6.2626748186092596E-2</v>
+        <v>-5.8871246375940767E-2</v>
       </c>
       <c r="AO20" s="16">
         <f t="shared" si="3"/>
-        <v>6.5705128205128194E-2</v>
+        <v>6.7837190742218612E-2</v>
       </c>
       <c r="AP20" s="16">
         <f t="shared" si="3"/>
-        <v>7.3684210526315796E-2</v>
+        <v>9.0433482810164501E-2</v>
       </c>
       <c r="AQ20" s="16">
         <f t="shared" si="3"/>
-        <v>6.7226890756302504E-2</v>
+        <v>6.991089787525695E-2</v>
       </c>
       <c r="AR20" s="16">
         <f t="shared" si="3"/>
-        <v>8.7270341207349E-2</v>
+        <v>9.4811018577834805E-2</v>
       </c>
     </row>
     <row r="21" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -6103,31 +6628,34 @@
       <c r="AM21" s="2">
         <v>0.33760000000000001</v>
       </c>
-      <c r="AN21" s="36">
+      <c r="AN21" s="32">
         <f>AN19/AN3</f>
-        <v>0.32474629195940674</v>
-      </c>
-      <c r="AO21" s="36">
+        <v>0.32715404699738904</v>
+      </c>
+      <c r="AO21" s="32">
         <f t="shared" ref="AO21:AR21" si="4">AO19/AO3</f>
-        <v>0.32360097323600973</v>
-      </c>
-      <c r="AP21" s="36">
+        <v>0.32947549864565379</v>
+      </c>
+      <c r="AP21" s="32">
         <f t="shared" si="4"/>
-        <v>0.32125984251968503</v>
-      </c>
-      <c r="AQ21" s="36">
+        <v>0.33946021405304794</v>
+      </c>
+      <c r="AQ21" s="32">
         <f t="shared" si="4"/>
-        <v>0.32172260924635848</v>
-      </c>
-      <c r="AR21" s="36">
+        <v>0.3213918056413424</v>
+      </c>
+      <c r="AR21" s="32">
         <f t="shared" si="4"/>
-        <v>0.32037896365042534</v>
+        <v>0.32447313461173344</v>
+      </c>
+      <c r="AT21" s="45" t="s">
+        <v>167</v>
       </c>
       <c r="AU21" s="18" t="s">
         <v>160</v>
       </c>
       <c r="AV21" s="19" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -6248,13 +6776,17 @@
       <c r="AM22" s="10">
         <v>119437000000</v>
       </c>
-      <c r="AU22" s="40">
-        <f>(-1*AM98)/AU101</f>
-        <v>4.8732660326920906E-3</v>
-      </c>
-      <c r="AV22" s="34">
-        <f>AM107/AU101</f>
-        <v>3.6593988712438831E-2</v>
+      <c r="AT22" s="17">
+        <f>SUM(AN29:AR29)/4</f>
+        <v>7.2733906431089262E-2</v>
+      </c>
+      <c r="AU22" s="36">
+        <f>(-1*AM98)/AU102</f>
+        <v>5.3482622922462631E-3</v>
+      </c>
+      <c r="AV22" s="30">
+        <f>AN107/AU102</f>
+        <v>3.3932509766047309E-2</v>
       </c>
     </row>
     <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -6970,20 +7502,20 @@
       <c r="AM28" s="11">
         <v>99803000000</v>
       </c>
-      <c r="AN28" s="37">
-        <v>94450000000</v>
-      </c>
-      <c r="AO28" s="37">
-        <v>100600000000</v>
-      </c>
-      <c r="AP28" s="37">
-        <v>109400000000</v>
-      </c>
-      <c r="AQ28" s="37">
-        <v>121900000000</v>
-      </c>
-      <c r="AR28" s="37">
-        <v>132800000000</v>
+      <c r="AN28" s="33">
+        <v>95970000000</v>
+      </c>
+      <c r="AO28" s="33">
+        <v>100700000000</v>
+      </c>
+      <c r="AP28" s="33">
+        <v>108700000000</v>
+      </c>
+      <c r="AQ28" s="33">
+        <v>119700000000</v>
+      </c>
+      <c r="AR28" s="33">
+        <v>131600000000</v>
       </c>
     </row>
     <row r="29" spans="1:48" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -7141,23 +7673,23 @@
       </c>
       <c r="AN29" s="16">
         <f t="shared" si="5"/>
-        <v>-5.3635662254641669E-2</v>
+        <v>-3.8405659148522564E-2</v>
       </c>
       <c r="AO29" s="16">
         <f t="shared" si="5"/>
-        <v>6.511381683430395E-2</v>
+        <v>4.9286235281858826E-2</v>
       </c>
       <c r="AP29" s="16">
         <f t="shared" si="5"/>
-        <v>8.74751491053678E-2</v>
+        <v>7.9443892750744816E-2</v>
       </c>
       <c r="AQ29" s="16">
         <f t="shared" si="5"/>
-        <v>0.11425959780621575</v>
+        <v>0.10119595216191346</v>
       </c>
       <c r="AR29" s="16">
         <f t="shared" si="5"/>
-        <v>8.9417555373256796E-2</v>
+        <v>9.9415204678362512E-2</v>
       </c>
       <c r="AU29" s="15"/>
     </row>
@@ -7279,25 +7811,25 @@
       <c r="AM30" s="2">
         <v>0.25309999999999999</v>
       </c>
-      <c r="AN30" s="38">
+      <c r="AN30" s="34">
         <f>AN28/AN3</f>
-        <v>0.24577153265677856</v>
-      </c>
-      <c r="AO30" s="38">
+        <v>0.25057441253263707</v>
+      </c>
+      <c r="AO30" s="34">
         <f t="shared" ref="AO30:AR30" si="6">AO28/AO3</f>
-        <v>0.24476885644768856</v>
-      </c>
-      <c r="AP30" s="38">
+        <v>0.24796848066978577</v>
+      </c>
+      <c r="AP30" s="34">
         <f t="shared" si="6"/>
-        <v>0.24611923509561304</v>
-      </c>
-      <c r="AQ30" s="38">
+        <v>0.25290832945556074</v>
+      </c>
+      <c r="AQ30" s="34">
         <f t="shared" si="6"/>
-        <v>0.25733586658222501</v>
-      </c>
-      <c r="AR30" s="38">
+        <v>0.24644842495367511</v>
+      </c>
+      <c r="AR30" s="34">
         <f t="shared" si="6"/>
-        <v>0.25676720804331016</v>
+        <v>0.24985760394911716</v>
       </c>
     </row>
     <row r="31" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -7418,20 +7950,20 @@
       <c r="AM31" s="12">
         <v>6.15</v>
       </c>
-      <c r="AN31" s="39">
-        <v>6</v>
-      </c>
-      <c r="AO31" s="39">
-        <v>6.4</v>
-      </c>
-      <c r="AP31" s="39">
+      <c r="AN31" s="35">
+        <v>6.12</v>
+      </c>
+      <c r="AO31" s="35">
+        <v>6.44</v>
+      </c>
+      <c r="AP31" s="35">
         <v>6.96</v>
       </c>
-      <c r="AQ31" s="39">
-        <v>7.75</v>
-      </c>
-      <c r="AR31" s="39">
-        <v>8.44</v>
+      <c r="AQ31" s="35">
+        <v>7.66</v>
+      </c>
+      <c r="AR31" s="35">
+        <v>8.42</v>
       </c>
     </row>
     <row r="32" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -13576,7 +14108,7 @@
         <v>-1823000000</v>
       </c>
     </row>
-    <row r="83" spans="1:47" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
@@ -13694,12 +14226,8 @@
       <c r="AM83" s="1">
         <v>1484000000</v>
       </c>
-      <c r="AT83" s="66" t="s">
-        <v>120</v>
-      </c>
-      <c r="AU83" s="67"/>
     </row>
-    <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -13817,12 +14345,18 @@
       <c r="AM84" s="1">
         <v>9448000000</v>
       </c>
-      <c r="AT84" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU84" s="68"/>
+      <c r="AN84" s="51"/>
+      <c r="AO84" s="51"/>
+      <c r="AP84" s="51"/>
+      <c r="AQ84" s="51"/>
+      <c r="AR84" s="51"/>
+      <c r="AS84" s="51"/>
+      <c r="AT84" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU84" s="75"/>
     </row>
-    <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -13940,13 +14474,16 @@
       <c r="AM85" s="1">
         <v>478000000</v>
       </c>
-      <c r="AT85" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="AU85" s="44">
-        <f>AM17</f>
-        <v>2931000000</v>
-      </c>
+      <c r="AN85" s="51"/>
+      <c r="AO85" s="51"/>
+      <c r="AP85" s="51"/>
+      <c r="AQ85" s="51"/>
+      <c r="AR85" s="51"/>
+      <c r="AS85" s="51"/>
+      <c r="AT85" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU85" s="73"/>
     </row>
     <row r="86" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -14066,12 +14603,18 @@
       <c r="AM86" s="1">
         <v>111000000</v>
       </c>
-      <c r="AT86" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="AU86" s="44">
-        <f>AM56</f>
-        <v>21110000000</v>
+      <c r="AN86" s="51"/>
+      <c r="AO86" s="51"/>
+      <c r="AP86" s="51"/>
+      <c r="AQ86" s="51"/>
+      <c r="AR86" s="51"/>
+      <c r="AS86" s="51"/>
+      <c r="AT86" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU86" s="52">
+        <f>AM17</f>
+        <v>2931000000</v>
       </c>
     </row>
     <row r="87" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14192,12 +14735,18 @@
       <c r="AM87" s="10">
         <v>122151000000</v>
       </c>
-      <c r="AT87" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="AU87" s="44">
-        <f>AM61</f>
-        <v>98959000000</v>
+      <c r="AN87" s="51"/>
+      <c r="AO87" s="51"/>
+      <c r="AP87" s="51"/>
+      <c r="AQ87" s="51"/>
+      <c r="AR87" s="51"/>
+      <c r="AS87" s="51"/>
+      <c r="AT87" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="AU87" s="52">
+        <f>AM56</f>
+        <v>21110000000</v>
       </c>
     </row>
     <row r="88" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14318,12 +14867,18 @@
       <c r="AM88" s="1">
         <v>-10708000000</v>
       </c>
-      <c r="AT88" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="AU88" s="46">
-        <f>AU85/(AU86+AU87)</f>
-        <v>2.4410963695874872E-2</v>
+      <c r="AN88" s="51"/>
+      <c r="AO88" s="51"/>
+      <c r="AP88" s="51"/>
+      <c r="AQ88" s="51"/>
+      <c r="AR88" s="51"/>
+      <c r="AS88" s="51"/>
+      <c r="AT88" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU88" s="52">
+        <f>AM61</f>
+        <v>98959000000</v>
       </c>
     </row>
     <row r="89" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -14482,12 +15037,18 @@
         <f t="shared" si="9"/>
         <v>2.7155058732831552E-2</v>
       </c>
-      <c r="AT89" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU89" s="44">
-        <f>AM27</f>
-        <v>19300000000</v>
+      <c r="AN89" s="51"/>
+      <c r="AO89" s="51"/>
+      <c r="AP89" s="51"/>
+      <c r="AQ89" s="51"/>
+      <c r="AR89" s="51"/>
+      <c r="AS89" s="51"/>
+      <c r="AT89" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU89" s="53">
+        <f>AU86/(AU87+AU88)</f>
+        <v>2.4410963695874872E-2</v>
       </c>
     </row>
     <row r="90" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14608,12 +15169,18 @@
       <c r="AM90" s="1">
         <v>-306000000</v>
       </c>
-      <c r="AT90" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="AU90" s="44">
-        <f>AM25</f>
-        <v>119103000000</v>
+      <c r="AN90" s="51"/>
+      <c r="AO90" s="51"/>
+      <c r="AP90" s="51"/>
+      <c r="AQ90" s="51"/>
+      <c r="AR90" s="51"/>
+      <c r="AS90" s="51"/>
+      <c r="AT90" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU90" s="52">
+        <f>AM27</f>
+        <v>19300000000</v>
       </c>
     </row>
     <row r="91" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14734,12 +15301,18 @@
       <c r="AM91" s="1">
         <v>-76923000000</v>
       </c>
-      <c r="AT91" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="AU91" s="46">
-        <f>AU89/AU90</f>
-        <v>0.16204461684424407</v>
+      <c r="AN91" s="51"/>
+      <c r="AO91" s="51"/>
+      <c r="AP91" s="51"/>
+      <c r="AQ91" s="51"/>
+      <c r="AR91" s="51"/>
+      <c r="AS91" s="51"/>
+      <c r="AT91" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU91" s="52">
+        <f>AM25</f>
+        <v>119103000000</v>
       </c>
     </row>
     <row r="92" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14860,15 +15433,21 @@
       <c r="AM92" s="1">
         <v>67363000000</v>
       </c>
-      <c r="AT92" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU92" s="46">
-        <f>AU88*(1-AU91)</f>
-        <v>2.0455298436978075E-2</v>
+      <c r="AN92" s="51"/>
+      <c r="AO92" s="51"/>
+      <c r="AP92" s="51"/>
+      <c r="AQ92" s="51"/>
+      <c r="AR92" s="51"/>
+      <c r="AS92" s="51"/>
+      <c r="AT92" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU92" s="53">
+        <f>AU90/AU91</f>
+        <v>0.16204461684424407</v>
       </c>
     </row>
-    <row r="93" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
@@ -14986,12 +15565,21 @@
       <c r="AM93" s="1">
         <v>-1780000000</v>
       </c>
-      <c r="AT93" s="68" t="s">
-        <v>128</v>
-      </c>
-      <c r="AU93" s="68"/>
+      <c r="AN93" s="51"/>
+      <c r="AO93" s="51"/>
+      <c r="AP93" s="51"/>
+      <c r="AQ93" s="51"/>
+      <c r="AR93" s="51"/>
+      <c r="AS93" s="51"/>
+      <c r="AT93" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU93" s="53">
+        <f>AU89*(1-AU92)</f>
+        <v>2.0455298436978075E-2</v>
+      </c>
     </row>
-    <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -15109,13 +15697,16 @@
       <c r="AM94" s="10">
         <v>-22354000000</v>
       </c>
-      <c r="AT94" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU94" s="47">
-        <f>[1]Treasuries!$C$8</f>
-        <v>3.8390000000000001E-2</v>
-      </c>
+      <c r="AN94" s="51"/>
+      <c r="AO94" s="51"/>
+      <c r="AP94" s="51"/>
+      <c r="AQ94" s="51"/>
+      <c r="AR94" s="51"/>
+      <c r="AS94" s="51"/>
+      <c r="AT94" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU94" s="73"/>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -15235,12 +15826,20 @@
       <c r="AM95" s="1">
         <v>-9543000000</v>
       </c>
-      <c r="AT95" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU95" s="48" cm="1">
-        <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>1.2894000000000001</v>
+      <c r="AN95" s="51"/>
+      <c r="AO95" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP95" s="51"/>
+      <c r="AQ95" s="51"/>
+      <c r="AR95" s="51"/>
+      <c r="AS95" s="51"/>
+      <c r="AT95" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="AU95" s="54">
+        <f>[1]Treasuries!$C$8</f>
+        <v>4.7160000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15361,11 +15960,18 @@
       <c r="AM96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT96" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="AU96" s="47">
-        <v>8.4000000000000005E-2</v>
+      <c r="AN96" s="51"/>
+      <c r="AO96" s="51"/>
+      <c r="AP96" s="51"/>
+      <c r="AQ96" s="51"/>
+      <c r="AR96" s="51"/>
+      <c r="AS96" s="51"/>
+      <c r="AT96" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU96" s="55" cm="1">
+        <f t="array" ref="AU96">_FV(A1,"Beta")</f>
+        <v>1.3077000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15486,15 +16092,20 @@
       <c r="AM97" s="1">
         <v>-89402000000</v>
       </c>
-      <c r="AT97" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU97" s="46">
-        <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>9.7199534000000004E-2</v>
+      <c r="AN97" s="51"/>
+      <c r="AO97" s="51"/>
+      <c r="AP97" s="51"/>
+      <c r="AQ97" s="51"/>
+      <c r="AR97" s="51"/>
+      <c r="AS97" s="51"/>
+      <c r="AT97" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU97" s="54">
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
@@ -15612,12 +16223,21 @@
       <c r="AM98" s="1">
         <v>-14841000000</v>
       </c>
-      <c r="AT98" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="AU98" s="68"/>
+      <c r="AN98" s="51"/>
+      <c r="AO98" s="51"/>
+      <c r="AP98" s="51"/>
+      <c r="AQ98" s="51"/>
+      <c r="AR98" s="51"/>
+      <c r="AS98" s="51"/>
+      <c r="AT98" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU98" s="53">
+        <f>(AU95)+((AU96)*(AU97-AU95))</f>
+        <v>9.5335668000000012E-2</v>
+      </c>
     </row>
-    <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -15735,13 +16355,16 @@
       <c r="AM99" s="1">
         <v>3037000000</v>
       </c>
-      <c r="AT99" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU99" s="44">
-        <f>AU86+AU87</f>
-        <v>120069000000</v>
-      </c>
+      <c r="AN99" s="51"/>
+      <c r="AO99" s="51"/>
+      <c r="AP99" s="51"/>
+      <c r="AQ99" s="51"/>
+      <c r="AR99" s="51"/>
+      <c r="AS99" s="51"/>
+      <c r="AT99" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="AU99" s="73"/>
     </row>
     <row r="100" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -15861,12 +16484,18 @@
       <c r="AM100" s="10">
         <v>-110749000000</v>
       </c>
-      <c r="AT100" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU100" s="46">
-        <f>AU99/AU103</f>
-        <v>3.793098128571646E-2</v>
+      <c r="AN100" s="51"/>
+      <c r="AO100" s="51"/>
+      <c r="AP100" s="51"/>
+      <c r="AQ100" s="51"/>
+      <c r="AR100" s="51"/>
+      <c r="AS100" s="51"/>
+      <c r="AT100" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU100" s="52">
+        <f>AU87+AU88</f>
+        <v>120069000000</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15987,12 +16616,18 @@
       <c r="AM101" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT101" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU101" s="29" cm="1">
-        <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>3045390894000</v>
+      <c r="AN101" s="51"/>
+      <c r="AO101" s="51"/>
+      <c r="AP101" s="51"/>
+      <c r="AQ101" s="51"/>
+      <c r="AR101" s="51"/>
+      <c r="AS101" s="51"/>
+      <c r="AT101" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU101" s="53">
+        <f>AU100/AU104</f>
+        <v>4.1474768988759542E-2</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16113,12 +16748,18 @@
       <c r="AM102" s="10">
         <v>-10952000000</v>
       </c>
-      <c r="AT102" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="AU102" s="46">
-        <f>AU101/AU103</f>
-        <v>0.96206901871428352</v>
+      <c r="AN102" s="51"/>
+      <c r="AO102" s="51"/>
+      <c r="AP102" s="51"/>
+      <c r="AQ102" s="51"/>
+      <c r="AR102" s="51"/>
+      <c r="AS102" s="51"/>
+      <c r="AT102" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU102" s="56" cm="1">
+        <f t="array" ref="AU102">_FV(A1,"Market cap",TRUE)</f>
+        <v>2774920000000</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16239,15 +16880,21 @@
       <c r="AM103" s="1">
         <v>35929000000</v>
       </c>
-      <c r="AT103" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="AU103" s="49">
-        <f>AU99+AU101</f>
-        <v>3165459894000</v>
+      <c r="AN103" s="51"/>
+      <c r="AO103" s="51"/>
+      <c r="AP103" s="51"/>
+      <c r="AQ103" s="51"/>
+      <c r="AR103" s="51"/>
+      <c r="AS103" s="51"/>
+      <c r="AT103" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU103" s="53">
+        <f>AU102/AU104</f>
+        <v>0.95852523101124043</v>
       </c>
     </row>
-    <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:47" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -16365,17 +17012,28 @@
       <c r="AM104" s="11">
         <v>24977000000</v>
       </c>
-      <c r="AT104" s="68" t="s">
-        <v>139</v>
-      </c>
-      <c r="AU104" s="68"/>
+      <c r="AN104" s="72" t="s">
+        <v>164</v>
+      </c>
+      <c r="AO104" s="72"/>
+      <c r="AP104" s="72"/>
+      <c r="AQ104" s="72"/>
+      <c r="AR104" s="72"/>
+      <c r="AS104" s="51"/>
+      <c r="AT104" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU104" s="57">
+        <f>AU100+AU102</f>
+        <v>2894989000000</v>
+      </c>
     </row>
-    <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:47" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B105" s="1" t="e">
-        <f t="shared" ref="B105:AL105" si="10">(B22*(1-$AU$91))+B77+B88+B81</f>
+        <f t="shared" ref="B105:AM105" si="10">(B22*(1-$AU$92))+B77+B88+B81</f>
         <v>#VALUE!</v>
       </c>
       <c r="C105" s="1" t="e">
@@ -16523,222 +17181,225 @@
         <v>86582401039.436447</v>
       </c>
       <c r="AM105" s="1">
-        <f>(AM22*(1-$AU$91))+AM77+AM88+AM81</f>
+        <f t="shared" si="10"/>
         <v>101678877097.97401</v>
       </c>
-      <c r="AN105" s="27">
-        <f>AM105*(1+$AU$106)</f>
-        <v>107435466212.66307</v>
-      </c>
-      <c r="AO105" s="27">
-        <f t="shared" ref="AO105:AR105" si="11">AN105*(1+$AU$106)</f>
-        <v>113517966855.69666</v>
-      </c>
-      <c r="AP105" s="27">
-        <f t="shared" si="11"/>
-        <v>119944830634.82228</v>
-      </c>
-      <c r="AQ105" s="27">
-        <f t="shared" si="11"/>
-        <v>126735553802.72592</v>
-      </c>
-      <c r="AR105" s="27">
-        <f t="shared" si="11"/>
-        <v>133910736400.01089</v>
-      </c>
-      <c r="AS105" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="AT105" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU105" s="51">
-        <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>9.4288549837072411E-2</v>
-      </c>
+      <c r="AN105" s="58">
+        <f>AM105*(1+$AU$107)</f>
+        <v>107869508343.07518</v>
+      </c>
+      <c r="AO105" s="58">
+        <f>AN105*(1+$AU$107)</f>
+        <v>114437050863.22804</v>
+      </c>
+      <c r="AP105" s="58">
+        <f>AO105*(1+$AU$107)</f>
+        <v>121404452578.22246</v>
+      </c>
+      <c r="AQ105" s="58">
+        <f>AP105*(1+$AU$107)</f>
+        <v>128796058572.26743</v>
+      </c>
+      <c r="AR105" s="58">
+        <f>AQ105*(1+$AU$107)</f>
+        <v>136637696159.14873</v>
+      </c>
+      <c r="AS105" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="AT105" s="73" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU105" s="73"/>
     </row>
-    <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15" t="e">
-        <f t="shared" ref="C106:AM106" si="12">(C107/B107)-1</f>
+        <f t="shared" ref="C106:AM106" si="11">(C107/B107)-1</f>
         <v>#VALUE!</v>
       </c>
       <c r="D106" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="E106" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="F106" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="G106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.7566157286619455</v>
       </c>
       <c r="H106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-1.1211465657111952</v>
       </c>
       <c r="I106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-8.6875</v>
       </c>
       <c r="J106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-2.2701800232288036</v>
       </c>
       <c r="K106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-1.6599702823179792</v>
       </c>
       <c r="L106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-1.6910191753491466</v>
       </c>
       <c r="M106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-2.132832080200501</v>
       </c>
       <c r="N106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-0.70132743362831862</v>
       </c>
       <c r="O106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4.325925925925926</v>
       </c>
       <c r="P106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4.4506258692628586E-2</v>
       </c>
       <c r="Q106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-4.260985352862845E-2</v>
       </c>
       <c r="R106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-1.0653685674547984</v>
       </c>
       <c r="S106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.8085106382978724</v>
       </c>
       <c r="T106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-2.4705882352941178</v>
       </c>
       <c r="U106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>5.0640000000000001</v>
       </c>
       <c r="V106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2.0013192612137205</v>
       </c>
       <c r="W106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-0.31296703296703299</v>
       </c>
       <c r="X106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.8688419705694179</v>
       </c>
       <c r="Y106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.87265834076717219</v>
       </c>
       <c r="Z106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>6.5380493033226239E-2</v>
       </c>
       <c r="AA106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.84149340487368662</v>
       </c>
       <c r="AB106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.82572538545586993</v>
       </c>
       <c r="AC106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.37826245968680383</v>
       </c>
       <c r="AD106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>7.5650118203309802E-2</v>
       </c>
       <c r="AE106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.11908499663601702</v>
       </c>
       <c r="AF106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.39835671342685375</v>
       </c>
       <c r="AG106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-0.25082404196164976</v>
       </c>
       <c r="AH106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-2.8177366286632477E-2</v>
       </c>
       <c r="AI106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.26214987303899373</v>
       </c>
       <c r="AJ106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-8.1486564464060107E-2</v>
       </c>
       <c r="AK106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.24567033414832928</v>
       </c>
       <c r="AL106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.26699379813262447</v>
       </c>
       <c r="AM106" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.19891773261755952</v>
       </c>
-      <c r="AN106" s="42">
-        <v>93510000000</v>
-      </c>
-      <c r="AO106" s="42">
-        <v>104300000000</v>
-      </c>
-      <c r="AP106" s="42">
-        <v>112700000000</v>
-      </c>
-      <c r="AQ106" s="42">
-        <v>119200000000</v>
-      </c>
-      <c r="AR106" s="42">
-        <v>130800000000</v>
-      </c>
-      <c r="AS106" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="AT106" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU106" s="53">
-        <f>(SUM(AN4:AR4)/5)</f>
-        <v>5.6615388357822052E-2</v>
+      <c r="AN106" s="48">
+        <f>(AN107/AM107)-1</f>
+        <v>-0.15508376479455865</v>
+      </c>
+      <c r="AO106" s="48">
+        <f>(AO107/AN107)-1</f>
+        <v>0.11724723874256582</v>
+      </c>
+      <c r="AP106" s="48">
+        <f>(AP107/AO107)-1</f>
+        <v>9.5057034220532355E-2</v>
+      </c>
+      <c r="AQ106" s="48">
+        <f>(AQ107/AP107)-1</f>
+        <v>9.7222222222222321E-2</v>
+      </c>
+      <c r="AR106" s="48">
+        <f>(AR107/AQ107)-1</f>
+        <v>7.5949367088607556E-2</v>
+      </c>
+      <c r="AS106" s="49">
+        <f>SUM(AN106:AR106)/5</f>
+        <v>4.6078419495873879E-2</v>
+      </c>
+      <c r="AT106" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU106" s="59">
+        <f>(AU101*AU93)+(AU103*AU98)</f>
+        <v>9.2230021970580736E-2</v>
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="41" t="s">
-        <v>164</v>
+      <c r="A107" s="37" t="s">
+        <v>163</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>91</v>
@@ -16854,151 +17515,239 @@
       <c r="AM107" s="1">
         <v>111443000000</v>
       </c>
-      <c r="AN107" s="28"/>
-      <c r="AO107" s="28"/>
-      <c r="AP107" s="28"/>
-      <c r="AQ107" s="28"/>
-      <c r="AR107" s="29">
-        <f>AR105*(1+AU107)/(AU108-AU107)</f>
-        <v>1980969512751.6123</v>
-      </c>
-      <c r="AS107" s="30" t="s">
+      <c r="AN107" s="60">
+        <v>94160000000</v>
+      </c>
+      <c r="AO107" s="60">
+        <v>105200000000</v>
+      </c>
+      <c r="AP107" s="60">
+        <v>115200000000</v>
+      </c>
+      <c r="AQ107" s="60">
+        <v>126400000000</v>
+      </c>
+      <c r="AR107" s="60">
+        <v>136000000000</v>
+      </c>
+      <c r="AS107" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT107" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU107" s="41">
+        <f>(SUM(AN4:AR4)/5)</f>
+        <v>6.0884142525847305E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.2">
+      <c r="AN108" s="50"/>
+      <c r="AO108" s="50"/>
+      <c r="AP108" s="50"/>
+      <c r="AQ108" s="50"/>
+      <c r="AR108" s="76">
+        <f>AR107*(1+AU108)/(AU109-AU108)</f>
+        <v>2073478423984.4548</v>
+      </c>
+      <c r="AS108" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="AT107" s="54" t="s">
+      <c r="AT108" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="AU107" s="55">
+      <c r="AU108" s="42">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="29">
-        <f t="shared" ref="AN108:AQ108" si="13">AN107+AN105</f>
-        <v>107435466212.66307</v>
-      </c>
-      <c r="AO108" s="29">
-        <f t="shared" si="13"/>
-        <v>113517966855.69666</v>
-      </c>
-      <c r="AP108" s="29">
-        <f t="shared" si="13"/>
-        <v>119944830634.82228</v>
-      </c>
-      <c r="AQ108" s="29">
-        <f t="shared" si="13"/>
-        <v>126735553802.72592</v>
-      </c>
-      <c r="AR108" s="29">
-        <f>AR107+AR105</f>
-        <v>2114880249151.6233</v>
-      </c>
-      <c r="AS108" s="30" t="s">
+    <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.2">
+      <c r="AN109" s="76">
+        <f>AN108+AN107</f>
+        <v>94160000000</v>
+      </c>
+      <c r="AO109" s="76">
+        <f t="shared" ref="AO109:AR109" si="12">AO108+AO107</f>
+        <v>105200000000</v>
+      </c>
+      <c r="AP109" s="76">
+        <f t="shared" si="12"/>
+        <v>115200000000</v>
+      </c>
+      <c r="AQ109" s="76">
+        <f t="shared" si="12"/>
+        <v>126400000000</v>
+      </c>
+      <c r="AR109" s="76">
+        <f t="shared" si="12"/>
+        <v>2209478423984.4551</v>
+      </c>
+      <c r="AS109" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="AT108" s="56" t="s">
+      <c r="AT109" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="AU108" s="53">
-        <f>AU105</f>
-        <v>9.4288549837072411E-2</v>
+      <c r="AU109" s="41">
+        <f>AU106</f>
+        <v>9.2230021970580736E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="65" t="s">
+    <row r="110" spans="1:47" ht="19" x14ac:dyDescent="0.2">
+      <c r="AN110" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="AO109" s="65"/>
+      <c r="AO110" s="71"/>
+      <c r="AP110" s="51"/>
+      <c r="AQ110" s="51"/>
+      <c r="AR110" s="51"/>
+      <c r="AS110" s="51"/>
+      <c r="AT110" s="51"/>
+      <c r="AU110" s="51"/>
     </row>
-    <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="57" t="s">
+    <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.2">
+      <c r="AN111" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="AO110" s="29">
-        <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>1720698231346.7925</v>
-      </c>
+      <c r="AO111" s="56">
+        <f>NPV(AU109,AN109,AO109,AP109,AQ109,AR109)</f>
+        <v>1773029658733.7366</v>
+      </c>
+      <c r="AP111" s="51"/>
+      <c r="AQ111" s="51"/>
+      <c r="AR111" s="51"/>
+      <c r="AS111" s="51"/>
+      <c r="AT111" s="51"/>
+      <c r="AU111" s="51"/>
     </row>
-    <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="57" t="s">
+    <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.2">
+      <c r="AN112" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="AO111" s="29">
+      <c r="AO112" s="56">
         <f>AM40</f>
         <v>48304000000</v>
       </c>
+      <c r="AP112" s="51"/>
+      <c r="AQ112" s="51"/>
+      <c r="AR112" s="51"/>
+      <c r="AS112" s="51"/>
+      <c r="AT112" s="51"/>
+      <c r="AU112" s="51"/>
     </row>
-    <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="57" t="s">
+    <row r="113" spans="40:47" ht="20" x14ac:dyDescent="0.2">
+      <c r="AN113" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="AO112" s="29">
-        <f>AU99</f>
+      <c r="AO113" s="56">
+        <f>AU100</f>
         <v>120069000000</v>
       </c>
+      <c r="AP113" s="51"/>
+      <c r="AQ113" s="51"/>
+      <c r="AR113" s="51"/>
+      <c r="AS113" s="51"/>
+      <c r="AT113" s="51"/>
+      <c r="AU113" s="51"/>
     </row>
-    <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="57" t="s">
+    <row r="114" spans="40:47" ht="20" x14ac:dyDescent="0.2">
+      <c r="AN114" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="AO113" s="29">
-        <f>AO110+AO111-AO112</f>
-        <v>1648933231346.7925</v>
-      </c>
+      <c r="AO114" s="56">
+        <f>AO111+AO112-AO113</f>
+        <v>1701264658733.7366</v>
+      </c>
+      <c r="AP114" s="51"/>
+      <c r="AQ114" s="51"/>
+      <c r="AR114" s="51"/>
+      <c r="AS114" s="51"/>
+      <c r="AT114" s="51"/>
+      <c r="AU114" s="51"/>
     </row>
-    <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="57" t="s">
+    <row r="115" spans="40:47" ht="20" x14ac:dyDescent="0.2">
+      <c r="AN115" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="AO114" s="57">
+      <c r="AO115" s="65">
         <f>AM34*(1+(5*AS16))</f>
         <v>12320235482.186365</v>
       </c>
+      <c r="AP115" s="51"/>
+      <c r="AQ115" s="51"/>
+      <c r="AR115" s="51"/>
+      <c r="AS115" s="51"/>
+      <c r="AT115" s="51"/>
+      <c r="AU115" s="51"/>
     </row>
-    <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="58" t="s">
+    <row r="116" spans="40:47" ht="20" x14ac:dyDescent="0.2">
+      <c r="AN116" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="AO115" s="59">
-        <f>AO113/AO114</f>
-        <v>133.83942488201293</v>
-      </c>
+      <c r="AO116" s="67">
+        <f>AO114/AO115</f>
+        <v>138.08702448857966</v>
+      </c>
+      <c r="AP116" s="51"/>
+      <c r="AQ116" s="51"/>
+      <c r="AR116" s="51"/>
+      <c r="AS116" s="51"/>
+      <c r="AT116" s="51"/>
+      <c r="AU116" s="51"/>
     </row>
-    <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="57" t="s">
+    <row r="117" spans="40:47" ht="20" x14ac:dyDescent="0.2">
+      <c r="AN117" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="AO116" s="60" cm="1">
-        <f t="array" ref="AO116">_FV(A1,"Price",TRUE)</f>
-        <v>193.62</v>
-      </c>
+      <c r="AO117" s="68" cm="1">
+        <f t="array" ref="AO117">_FV(A1,"Price",TRUE)</f>
+        <v>177.49</v>
+      </c>
+      <c r="AP117" s="51"/>
+      <c r="AQ117" s="51"/>
+      <c r="AR117" s="51"/>
+      <c r="AS117" s="51"/>
+      <c r="AT117" s="51"/>
+      <c r="AU117" s="51"/>
     </row>
-    <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="58" t="s">
+    <row r="118" spans="40:47" ht="20" x14ac:dyDescent="0.2">
+      <c r="AN118" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="AO117" s="61">
-        <f>(AO115/AO116)-1</f>
-        <v>-0.30875206651165721</v>
-      </c>
+      <c r="AO118" s="69">
+        <f>(AO116/AO117)-1</f>
+        <v>-0.22200110153484898</v>
+      </c>
+      <c r="AP118" s="51"/>
+      <c r="AQ118" s="51"/>
+      <c r="AR118" s="51"/>
+      <c r="AS118" s="51"/>
+      <c r="AT118" s="51"/>
+      <c r="AU118" s="51"/>
     </row>
-    <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="58" t="s">
+    <row r="119" spans="40:47" ht="20" x14ac:dyDescent="0.2">
+      <c r="AN119" s="66" t="s">
         <v>152</v>
       </c>
-      <c r="AO118" s="62" t="str">
-        <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
+      <c r="AO119" s="70" t="str">
+        <f>IF(AO116&gt;AO117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
+      <c r="AP119" s="51"/>
+      <c r="AQ119" s="51"/>
+      <c r="AR119" s="51"/>
+      <c r="AS119" s="51"/>
+      <c r="AT119" s="51"/>
+      <c r="AU119" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="AN109:AO109"/>
-    <mergeCell ref="AT83:AU83"/>
+  <mergeCells count="7">
     <mergeCell ref="AT84:AU84"/>
-    <mergeCell ref="AT93:AU93"/>
-    <mergeCell ref="AT98:AU98"/>
-    <mergeCell ref="AT104:AU104"/>
+    <mergeCell ref="AT85:AU85"/>
+    <mergeCell ref="AN110:AO110"/>
+    <mergeCell ref="AN104:AR104"/>
+    <mergeCell ref="AT105:AU105"/>
+    <mergeCell ref="AT99:AU99"/>
+    <mergeCell ref="AT94:AU94"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/AAPL" display="ROIC.AI | AAPL" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -17079,7 +17828,7 @@
     <hyperlink ref="AM36" r:id="rId76" tooltip="https://www.sec.gov/Archives/edgar/data/320193/000032019322000108/0000320193-22-000108-index.htm" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
     <hyperlink ref="AM74" r:id="rId77" tooltip="https://www.sec.gov/Archives/edgar/data/320193/000032019322000108/0000320193-22-000108-index.htm" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
     <hyperlink ref="AN1" r:id="rId78" display="https://finbox.com/NASDAQGS:AAPL/explorer/revenue_proj" xr:uid="{700734FC-754D-F542-A811-58205D1BD4D8}"/>
-    <hyperlink ref="AS106" r:id="rId79" xr:uid="{DDF2AB5D-4ECD-C04F-9B10-28AD1A34C384}"/>
+    <hyperlink ref="AS107" r:id="rId79" xr:uid="{DDF2AB5D-4ECD-C04F-9B10-28AD1A34C384}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId80"/>

--- a/Technology/Hardware/Apple.xlsx
+++ b/Technology/Hardware/Apple.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D531E7-4443-0646-AA7C-C0E5CE686103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0559C4F-ED5F-9446-B2C1-167C5B554ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="169">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -567,9 +567,6 @@
     <t>Levered FCF</t>
   </si>
   <si>
-    <t>Unlevered FCF Proj</t>
-  </si>
-  <si>
     <t>Unlevered FCF Forecast</t>
   </si>
   <si>
@@ -891,7 +888,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1020,9 +1017,6 @@
     <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1059,14 +1053,8 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1074,8 +1062,21 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2917,15 +2918,18 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Technology - Software"/>
-      <sheetName val="Technology - Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
-      <sheetName val="Full Portfolio"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="Growth"/>
-      <sheetName val="ROIC"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Value"/>
+      <sheetName val="Watchlist"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -2938,19 +2942,22 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.7160000000000001E-2</v>
+            <v>4.845E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3078,11 +3085,11 @@
     <v>Powered by Refinitiv</v>
     <v>198.23</v>
     <v>124.17</v>
-    <v>1.3077000000000001</v>
-    <v>2.58</v>
-    <v>1.4750000000000001E-2</v>
-    <v>0.22</v>
-    <v>1.24E-3</v>
+    <v>1.3018000000000001</v>
+    <v>1.33</v>
+    <v>7.9690000000000004E-3</v>
+    <v>-0.2001</v>
+    <v>-1.1899999999999999E-3</v>
     <v>USD</v>
     <v>Apple Inc. (Apple) designs, manufactures and markets smartphones, personal computers, tablets, wearables and accessories and sells a range of related services. The Company’s products include iPhone, Mac, iPad, AirPods, Apple TV, Apple Watch, Beats products, HomePod, iPod touch and accessories. The Company operates various platforms, including the App Store, which allows customers to discover and download applications and digital content, such as books, music, video, games and podcasts. Apple offers digital content through subscription-based services, including Apple Arcade, Apple Music, Apple News+, Apple TV+ and Apple Fitness+. Apple also offers a range of other services, such as AppleCare, iCloud, Apple Card and Apple Pay. Apple sells its products and resells third-party products in a range of markets, including directly to consumers, small and mid-sized businesses, and education, enterprise and government customers through its retail and online stores and its direct sales force.</v>
     <v>164000</v>
@@ -3090,25 +3097,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Apple Park Way, CUPERTINO, CA, 95014 US</v>
-    <v>177.99</v>
+    <v>168.96</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>45205.999987580471</v>
+    <v>45226.999880046096</v>
     <v>0</v>
-    <v>173.18</v>
-    <v>2774920000000</v>
+    <v>166.83</v>
+    <v>2629991000000</v>
     <v>APPLE INC.</v>
     <v>APPLE INC.</v>
-    <v>173.8</v>
-    <v>29.374099999999999</v>
-    <v>174.91</v>
-    <v>177.49</v>
-    <v>177.71</v>
+    <v>166.91</v>
+    <v>28.250599999999999</v>
+    <v>166.89</v>
+    <v>168.22</v>
+    <v>168.01990000000001</v>
     <v>15634230000</v>
     <v>AAPL</v>
     <v>APPLE INC. (XNAS:AAPL)</v>
-    <v>57266675</v>
-    <v>64079025</v>
+    <v>58499129</v>
+    <v>54437363</v>
     <v>1977</v>
   </rv>
   <rv s="2">
@@ -3273,9 +3280,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3696,10 +3703,10 @@
   <dimension ref="A1:AV119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AS92" sqref="AS92"/>
+      <selection pane="bottomRight" activeCell="AP23" sqref="AP23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5925,15 +5932,15 @@
       </c>
       <c r="AT16" s="27">
         <f>AU102/AM3</f>
-        <v>7.0370858777464447</v>
+        <v>6.6695517437260348</v>
       </c>
       <c r="AU16" s="27">
         <f>AU102/AM28</f>
-        <v>27.803973828442032</v>
+        <v>26.351823091490235</v>
       </c>
       <c r="AV16" s="29">
         <f>AU102/AM107</f>
-        <v>24.899903986791454</v>
+        <v>23.599427510027549</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -6325,15 +6332,15 @@
       </c>
       <c r="AT19" s="27">
         <f>AU102/AN3</f>
-        <v>7.2452219321148821</v>
+        <v>6.8668172323759791</v>
       </c>
       <c r="AU19" s="28">
         <f>AO117/AN31</f>
-        <v>29.001633986928105</v>
+        <v>27.486928104575163</v>
       </c>
       <c r="AV19" s="29">
         <f>AU102/AN107</f>
-        <v>29.470263381478336</v>
+        <v>27.93108538657604</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6649,13 +6656,13 @@
         <v>0.32447313461173344</v>
       </c>
       <c r="AT21" s="45" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AU21" s="18" t="s">
         <v>160</v>
       </c>
       <c r="AV21" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -6782,11 +6789,11 @@
       </c>
       <c r="AU22" s="36">
         <f>(-1*AM98)/AU102</f>
-        <v>5.3482622922462631E-3</v>
+        <v>5.6429850900630461E-3</v>
       </c>
       <c r="AV22" s="30">
         <f>AN107/AU102</f>
-        <v>3.3932509766047309E-2</v>
+        <v>3.5802403886553223E-2</v>
       </c>
     </row>
     <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -14351,10 +14358,10 @@
       <c r="AQ84" s="51"/>
       <c r="AR84" s="51"/>
       <c r="AS84" s="51"/>
-      <c r="AT84" s="74" t="s">
+      <c r="AT84" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="AU84" s="75"/>
+      <c r="AU84" s="72"/>
     </row>
     <row r="85" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -15828,7 +15835,7 @@
       </c>
       <c r="AN95" s="51"/>
       <c r="AO95" s="51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AP95" s="51"/>
       <c r="AQ95" s="51"/>
@@ -15837,9 +15844,9 @@
       <c r="AT95" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="AU95" s="54">
-        <f>[1]Treasuries!$C$8</f>
-        <v>4.7160000000000001E-2</v>
+      <c r="AU95" s="75">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.845E-2</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15971,7 +15978,7 @@
       </c>
       <c r="AU96" s="55" cm="1">
         <f t="array" ref="AU96">_FV(A1,"Beta")</f>
-        <v>1.3077000000000001</v>
+        <v>1.3018000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16234,7 +16241,7 @@
       </c>
       <c r="AU98" s="53">
         <f>(AU95)+((AU96)*(AU97-AU95))</f>
-        <v>9.5335668000000012E-2</v>
+        <v>9.4728990000000013E-2</v>
       </c>
     </row>
     <row r="99" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -16627,7 +16634,7 @@
       </c>
       <c r="AU101" s="53">
         <f>AU100/AU104</f>
-        <v>4.1474768988759542E-2</v>
+        <v>4.3660501952684672E-2</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16759,7 +16766,7 @@
       </c>
       <c r="AU102" s="56" cm="1">
         <f t="array" ref="AU102">_FV(A1,"Market cap",TRUE)</f>
-        <v>2774920000000</v>
+        <v>2629991000000</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16891,7 +16898,7 @@
       </c>
       <c r="AU103" s="53">
         <f>AU102/AU104</f>
-        <v>0.95852523101124043</v>
+        <v>0.95633949804731533</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17012,20 +17019,20 @@
       <c r="AM104" s="11">
         <v>24977000000</v>
       </c>
-      <c r="AN104" s="72" t="s">
-        <v>164</v>
-      </c>
-      <c r="AO104" s="72"/>
-      <c r="AP104" s="72"/>
-      <c r="AQ104" s="72"/>
-      <c r="AR104" s="72"/>
+      <c r="AN104" s="76" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO104" s="76"/>
+      <c r="AP104" s="76"/>
+      <c r="AQ104" s="76"/>
+      <c r="AR104" s="76"/>
       <c r="AS104" s="51"/>
       <c r="AT104" s="39" t="s">
         <v>138</v>
       </c>
       <c r="AU104" s="57">
         <f>AU100+AU102</f>
-        <v>2894989000000</v>
+        <v>2750060000000</v>
       </c>
     </row>
     <row r="105" spans="1:47" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -17184,28 +17191,28 @@
         <f t="shared" si="10"/>
         <v>101678877097.97401</v>
       </c>
-      <c r="AN105" s="58">
-        <f>AM105*(1+$AU$107)</f>
-        <v>107869508343.07518</v>
-      </c>
-      <c r="AO105" s="58">
-        <f>AN105*(1+$AU$107)</f>
-        <v>114437050863.22804</v>
-      </c>
-      <c r="AP105" s="58">
-        <f>AO105*(1+$AU$107)</f>
-        <v>121404452578.22246</v>
-      </c>
-      <c r="AQ105" s="58">
-        <f>AP105*(1+$AU$107)</f>
-        <v>128796058572.26743</v>
-      </c>
-      <c r="AR105" s="58">
-        <f>AQ105*(1+$AU$107)</f>
-        <v>136637696159.14873</v>
-      </c>
-      <c r="AS105" s="50" t="s">
-        <v>169</v>
+      <c r="AN105" s="77">
+        <f>AN107/AN3</f>
+        <v>0.24584856396866842</v>
+      </c>
+      <c r="AO105" s="77">
+        <f>AO107/AO3</f>
+        <v>0.25904949519822706</v>
+      </c>
+      <c r="AP105" s="77">
+        <f>AP107/AP3</f>
+        <v>0.26803164262447648</v>
+      </c>
+      <c r="AQ105" s="77">
+        <f>AQ107/AQ3</f>
+        <v>0.26024294832200945</v>
+      </c>
+      <c r="AR105" s="77">
+        <f>AR107/AR3</f>
+        <v>0.25821150560091133</v>
+      </c>
+      <c r="AS105" s="78" t="s">
+        <v>168</v>
       </c>
       <c r="AT105" s="73" t="s">
         <v>139</v>
@@ -17392,9 +17399,9 @@
       <c r="AT106" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="AU106" s="59">
+      <c r="AU106" s="58">
         <f>(AU101*AU93)+(AU103*AU98)</f>
-        <v>9.2230021970580736E-2</v>
+        <v>9.1486163344479593E-2</v>
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -17515,25 +17522,25 @@
       <c r="AM107" s="1">
         <v>111443000000</v>
       </c>
-      <c r="AN107" s="60">
+      <c r="AN107" s="59">
         <v>94160000000</v>
       </c>
-      <c r="AO107" s="60">
+      <c r="AO107" s="59">
         <v>105200000000</v>
       </c>
-      <c r="AP107" s="60">
+      <c r="AP107" s="59">
         <v>115200000000</v>
       </c>
-      <c r="AQ107" s="60">
+      <c r="AQ107" s="59">
         <v>126400000000</v>
       </c>
-      <c r="AR107" s="60">
+      <c r="AR107" s="59">
         <v>136000000000</v>
       </c>
       <c r="AS107" s="50" t="s">
-        <v>165</v>
-      </c>
-      <c r="AT107" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT107" s="60" t="s">
         <v>140</v>
       </c>
       <c r="AU107" s="41">
@@ -17546,14 +17553,14 @@
       <c r="AO108" s="50"/>
       <c r="AP108" s="50"/>
       <c r="AQ108" s="50"/>
-      <c r="AR108" s="76">
+      <c r="AR108" s="70">
         <f>AR107*(1+AU108)/(AU109-AU108)</f>
-        <v>2073478423984.4548</v>
-      </c>
-      <c r="AS108" s="62" t="s">
+        <v>2096676857073.8184</v>
+      </c>
+      <c r="AS108" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="AT108" s="63" t="s">
+      <c r="AT108" s="62" t="s">
         <v>142</v>
       </c>
       <c r="AU108" s="42">
@@ -17561,42 +17568,42 @@
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.2">
-      <c r="AN109" s="76">
+      <c r="AN109" s="70">
         <f>AN108+AN107</f>
         <v>94160000000</v>
       </c>
-      <c r="AO109" s="76">
+      <c r="AO109" s="70">
         <f t="shared" ref="AO109:AR109" si="12">AO108+AO107</f>
         <v>105200000000</v>
       </c>
-      <c r="AP109" s="76">
+      <c r="AP109" s="70">
         <f t="shared" si="12"/>
         <v>115200000000</v>
       </c>
-      <c r="AQ109" s="76">
+      <c r="AQ109" s="70">
         <f t="shared" si="12"/>
         <v>126400000000</v>
       </c>
-      <c r="AR109" s="76">
+      <c r="AR109" s="70">
         <f t="shared" si="12"/>
-        <v>2209478423984.4551</v>
-      </c>
-      <c r="AS109" s="62" t="s">
+        <v>2232676857073.8184</v>
+      </c>
+      <c r="AS109" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="AT109" s="64" t="s">
+      <c r="AT109" s="63" t="s">
         <v>143</v>
       </c>
       <c r="AU109" s="41">
         <f>AU106</f>
-        <v>9.2230021970580736E-2</v>
+        <v>9.1486163344479593E-2</v>
       </c>
     </row>
     <row r="110" spans="1:47" ht="19" x14ac:dyDescent="0.2">
-      <c r="AN110" s="71" t="s">
+      <c r="AN110" s="74" t="s">
         <v>144</v>
       </c>
-      <c r="AO110" s="71"/>
+      <c r="AO110" s="74"/>
       <c r="AP110" s="51"/>
       <c r="AQ110" s="51"/>
       <c r="AR110" s="51"/>
@@ -17605,12 +17612,12 @@
       <c r="AU110" s="51"/>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.2">
-      <c r="AN111" s="65" t="s">
+      <c r="AN111" s="64" t="s">
         <v>145</v>
       </c>
       <c r="AO111" s="56">
         <f>NPV(AU109,AN109,AO109,AP109,AQ109,AR109)</f>
-        <v>1773029658733.7366</v>
+        <v>1793457046739.3335</v>
       </c>
       <c r="AP111" s="51"/>
       <c r="AQ111" s="51"/>
@@ -17620,7 +17627,7 @@
       <c r="AU111" s="51"/>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.2">
-      <c r="AN112" s="65" t="s">
+      <c r="AN112" s="64" t="s">
         <v>146</v>
       </c>
       <c r="AO112" s="56">
@@ -17635,7 +17642,7 @@
       <c r="AU112" s="51"/>
     </row>
     <row r="113" spans="40:47" ht="20" x14ac:dyDescent="0.2">
-      <c r="AN113" s="65" t="s">
+      <c r="AN113" s="64" t="s">
         <v>134</v>
       </c>
       <c r="AO113" s="56">
@@ -17650,12 +17657,12 @@
       <c r="AU113" s="51"/>
     </row>
     <row r="114" spans="40:47" ht="20" x14ac:dyDescent="0.2">
-      <c r="AN114" s="65" t="s">
+      <c r="AN114" s="64" t="s">
         <v>147</v>
       </c>
       <c r="AO114" s="56">
         <f>AO111+AO112-AO113</f>
-        <v>1701264658733.7366</v>
+        <v>1721692046739.3335</v>
       </c>
       <c r="AP114" s="51"/>
       <c r="AQ114" s="51"/>
@@ -17665,10 +17672,10 @@
       <c r="AU114" s="51"/>
     </row>
     <row r="115" spans="40:47" ht="20" x14ac:dyDescent="0.2">
-      <c r="AN115" s="65" t="s">
+      <c r="AN115" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="AO115" s="65">
+      <c r="AO115" s="64">
         <f>AM34*(1+(5*AS16))</f>
         <v>12320235482.186365</v>
       </c>
@@ -17680,12 +17687,12 @@
       <c r="AU115" s="51"/>
     </row>
     <row r="116" spans="40:47" ht="20" x14ac:dyDescent="0.2">
-      <c r="AN116" s="66" t="s">
+      <c r="AN116" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="AO116" s="67">
+      <c r="AO116" s="66">
         <f>AO114/AO115</f>
-        <v>138.08702448857966</v>
+        <v>139.74506000544397</v>
       </c>
       <c r="AP116" s="51"/>
       <c r="AQ116" s="51"/>
@@ -17695,12 +17702,12 @@
       <c r="AU116" s="51"/>
     </row>
     <row r="117" spans="40:47" ht="20" x14ac:dyDescent="0.2">
-      <c r="AN117" s="65" t="s">
+      <c r="AN117" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="AO117" s="68" cm="1">
+      <c r="AO117" s="67" cm="1">
         <f t="array" ref="AO117">_FV(A1,"Price",TRUE)</f>
-        <v>177.49</v>
+        <v>168.22</v>
       </c>
       <c r="AP117" s="51"/>
       <c r="AQ117" s="51"/>
@@ -17710,12 +17717,12 @@
       <c r="AU117" s="51"/>
     </row>
     <row r="118" spans="40:47" ht="20" x14ac:dyDescent="0.2">
-      <c r="AN118" s="66" t="s">
+      <c r="AN118" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="AO118" s="69">
+      <c r="AO118" s="68">
         <f>(AO116/AO117)-1</f>
-        <v>-0.22200110153484898</v>
+        <v>-0.16927202469715863</v>
       </c>
       <c r="AP118" s="51"/>
       <c r="AQ118" s="51"/>
@@ -17725,10 +17732,10 @@
       <c r="AU118" s="51"/>
     </row>
     <row r="119" spans="40:47" ht="20" x14ac:dyDescent="0.2">
-      <c r="AN119" s="66" t="s">
+      <c r="AN119" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="AO119" s="70" t="str">
+      <c r="AO119" s="69" t="str">
         <f>IF(AO116&gt;AO117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Hardware/Apple.xlsx
+++ b/Technology/Hardware/Apple.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0559C4F-ED5F-9446-B2C1-167C5B554ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D7D1ED-F41B-5248-8AA4-5B87D77CE762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1056,6 +1056,13 @@
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1068,14 +1075,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2926,10 +2926,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Watchlist"/>
       <sheetName val="Highest Quality"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Value"/>
-      <sheetName val="Watchlist"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -2946,7 +2946,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.845E-2</v>
+            <v>4.8750000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -3085,11 +3085,9 @@
     <v>Powered by Refinitiv</v>
     <v>198.23</v>
     <v>124.17</v>
-    <v>1.3018000000000001</v>
-    <v>1.33</v>
-    <v>7.9690000000000004E-3</v>
-    <v>-0.2001</v>
-    <v>-1.1899999999999999E-3</v>
+    <v>1.3172999999999999</v>
+    <v>3.6</v>
+    <v>2.0693000000000003E-2</v>
     <v>USD</v>
     <v>Apple Inc. (Apple) designs, manufactures and markets smartphones, personal computers, tablets, wearables and accessories and sells a range of related services. The Company’s products include iPhone, Mac, iPad, AirPods, Apple TV, Apple Watch, Beats products, HomePod, iPod touch and accessories. The Company operates various platforms, including the App Store, which allows customers to discover and download applications and digital content, such as books, music, video, games and podcasts. Apple offers digital content through subscription-based services, including Apple Arcade, Apple Music, Apple News+, Apple TV+ and Apple Fitness+. Apple also offers a range of other services, such as AppleCare, iCloud, Apple Card and Apple Pay. Apple sells its products and resells third-party products in a range of markets, including directly to consumers, small and mid-sized businesses, and education, enterprise and government customers through its retail and online stores and its direct sales force.</v>
     <v>164000</v>
@@ -3097,25 +3095,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Apple Park Way, CUPERTINO, CA, 95014 US</v>
-    <v>168.96</v>
+    <v>177.78</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>45226.999880046096</v>
+    <v>45232.999997256251</v>
     <v>0</v>
-    <v>166.83</v>
-    <v>2629991000000</v>
+    <v>175.46</v>
+    <v>2776170221100</v>
     <v>APPLE INC.</v>
     <v>APPLE INC.</v>
-    <v>166.91</v>
-    <v>28.250599999999999</v>
-    <v>166.89</v>
-    <v>168.22</v>
-    <v>168.01990000000001</v>
+    <v>175.52</v>
+    <v>28.9482</v>
+    <v>173.97</v>
+    <v>177.57</v>
     <v>15634230000</v>
     <v>AAPL</v>
     <v>APPLE INC. (XNAS:AAPL)</v>
-    <v>58499129</v>
-    <v>54437363</v>
+    <v>234771</v>
+    <v>53517448</v>
     <v>1977</v>
   </rv>
   <rv s="2">
@@ -3147,8 +3144,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -3169,7 +3164,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -3186,7 +3180,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -3197,16 +3191,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -3272,19 +3263,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -3329,9 +3314,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -3339,9 +3321,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3703,7 +3682,7 @@
   <dimension ref="A1:AV119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="AP23" sqref="AP23"/>
@@ -5932,15 +5911,15 @@
       </c>
       <c r="AT16" s="27">
         <f>AU102/AM3</f>
-        <v>6.6695517437260348</v>
+        <v>7.0402563883366129</v>
       </c>
       <c r="AU16" s="27">
         <f>AU102/AM28</f>
-        <v>26.351823091490235</v>
+        <v>27.816500717413305</v>
       </c>
       <c r="AV16" s="29">
         <f>AU102/AM107</f>
-        <v>23.599427510027549</v>
+        <v>24.911122467090799</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -6332,15 +6311,15 @@
       </c>
       <c r="AT19" s="27">
         <f>AU102/AN3</f>
-        <v>6.8668172323759791</v>
+        <v>7.2484862169712798</v>
       </c>
       <c r="AU19" s="28">
         <f>AO117/AN31</f>
-        <v>27.486928104575163</v>
+        <v>29.014705882352938</v>
       </c>
       <c r="AV19" s="29">
         <f>AU102/AN107</f>
-        <v>27.93108538657604</v>
+        <v>29.483541005734921</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6789,11 +6768,11 @@
       </c>
       <c r="AU22" s="36">
         <f>(-1*AM98)/AU102</f>
-        <v>5.6429850900630461E-3</v>
+        <v>5.3458537546446127E-3</v>
       </c>
       <c r="AV22" s="30">
         <f>AN107/AU102</f>
-        <v>3.5802403886553223E-2</v>
+        <v>3.3917228592233457E-2</v>
       </c>
     </row>
     <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -14358,10 +14337,10 @@
       <c r="AQ84" s="51"/>
       <c r="AR84" s="51"/>
       <c r="AS84" s="51"/>
-      <c r="AT84" s="71" t="s">
+      <c r="AT84" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="AU84" s="72"/>
+      <c r="AU84" s="75"/>
     </row>
     <row r="85" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -14487,10 +14466,10 @@
       <c r="AQ85" s="51"/>
       <c r="AR85" s="51"/>
       <c r="AS85" s="51"/>
-      <c r="AT85" s="73" t="s">
+      <c r="AT85" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="AU85" s="73"/>
+      <c r="AU85" s="76"/>
     </row>
     <row r="86" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -15710,10 +15689,10 @@
       <c r="AQ94" s="51"/>
       <c r="AR94" s="51"/>
       <c r="AS94" s="51"/>
-      <c r="AT94" s="73" t="s">
+      <c r="AT94" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="AU94" s="73"/>
+      <c r="AU94" s="76"/>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -15844,9 +15823,9 @@
       <c r="AT95" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="AU95" s="75">
+      <c r="AU95" s="71">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.845E-2</v>
+        <v>4.8750000000000002E-2</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15978,7 +15957,7 @@
       </c>
       <c r="AU96" s="55" cm="1">
         <f t="array" ref="AU96">_FV(A1,"Beta")</f>
-        <v>1.3018000000000001</v>
+        <v>1.3172999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16241,7 +16220,7 @@
       </c>
       <c r="AU98" s="53">
         <f>(AU95)+((AU96)*(AU97-AU95))</f>
-        <v>9.4728990000000013E-2</v>
+        <v>9.5184825000000001E-2</v>
       </c>
     </row>
     <row r="99" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -16368,10 +16347,10 @@
       <c r="AQ99" s="51"/>
       <c r="AR99" s="51"/>
       <c r="AS99" s="51"/>
-      <c r="AT99" s="73" t="s">
+      <c r="AT99" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="AU99" s="73"/>
+      <c r="AU99" s="76"/>
     </row>
     <row r="100" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -16634,7 +16613,7 @@
       </c>
       <c r="AU101" s="53">
         <f>AU100/AU104</f>
-        <v>4.3660501952684672E-2</v>
+        <v>4.1456865553528913E-2</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16766,7 +16745,7 @@
       </c>
       <c r="AU102" s="56" cm="1">
         <f t="array" ref="AU102">_FV(A1,"Market cap",TRUE)</f>
-        <v>2629991000000</v>
+        <v>2776170221100</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16898,7 +16877,7 @@
       </c>
       <c r="AU103" s="53">
         <f>AU102/AU104</f>
-        <v>0.95633949804731533</v>
+        <v>0.9585431344464711</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17019,20 +16998,20 @@
       <c r="AM104" s="11">
         <v>24977000000</v>
       </c>
-      <c r="AN104" s="76" t="s">
+      <c r="AN104" s="78" t="s">
         <v>154</v>
       </c>
-      <c r="AO104" s="76"/>
-      <c r="AP104" s="76"/>
-      <c r="AQ104" s="76"/>
-      <c r="AR104" s="76"/>
+      <c r="AO104" s="78"/>
+      <c r="AP104" s="78"/>
+      <c r="AQ104" s="78"/>
+      <c r="AR104" s="78"/>
       <c r="AS104" s="51"/>
       <c r="AT104" s="39" t="s">
         <v>138</v>
       </c>
       <c r="AU104" s="57">
         <f>AU100+AU102</f>
-        <v>2750060000000</v>
+        <v>2896239221100</v>
       </c>
     </row>
     <row r="105" spans="1:47" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -17191,33 +17170,33 @@
         <f t="shared" si="10"/>
         <v>101678877097.97401</v>
       </c>
-      <c r="AN105" s="77">
+      <c r="AN105" s="72">
         <f>AN107/AN3</f>
         <v>0.24584856396866842</v>
       </c>
-      <c r="AO105" s="77">
+      <c r="AO105" s="72">
         <f>AO107/AO3</f>
         <v>0.25904949519822706</v>
       </c>
-      <c r="AP105" s="77">
+      <c r="AP105" s="72">
         <f>AP107/AP3</f>
         <v>0.26803164262447648</v>
       </c>
-      <c r="AQ105" s="77">
+      <c r="AQ105" s="72">
         <f>AQ107/AQ3</f>
         <v>0.26024294832200945</v>
       </c>
-      <c r="AR105" s="77">
+      <c r="AR105" s="72">
         <f>AR107/AR3</f>
         <v>0.25821150560091133</v>
       </c>
-      <c r="AS105" s="78" t="s">
+      <c r="AS105" s="73" t="s">
         <v>168</v>
       </c>
-      <c r="AT105" s="73" t="s">
+      <c r="AT105" s="76" t="s">
         <v>139</v>
       </c>
-      <c r="AU105" s="73"/>
+      <c r="AU105" s="76"/>
     </row>
     <row r="106" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
@@ -17401,7 +17380,7 @@
       </c>
       <c r="AU106" s="58">
         <f>(AU101*AU93)+(AU103*AU98)</f>
-        <v>9.1486163344479593E-2</v>
+        <v>9.2086773064397928E-2</v>
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -17555,7 +17534,7 @@
       <c r="AQ108" s="50"/>
       <c r="AR108" s="70">
         <f>AR107*(1+AU108)/(AU109-AU108)</f>
-        <v>2096676857073.8184</v>
+        <v>2077905876709.6636</v>
       </c>
       <c r="AS108" s="61" t="s">
         <v>141</v>
@@ -17586,7 +17565,7 @@
       </c>
       <c r="AR109" s="70">
         <f t="shared" si="12"/>
-        <v>2232676857073.8184</v>
+        <v>2213905876709.6636</v>
       </c>
       <c r="AS109" s="61" t="s">
         <v>138</v>
@@ -17596,14 +17575,14 @@
       </c>
       <c r="AU109" s="41">
         <f>AU106</f>
-        <v>9.1486163344479593E-2</v>
+        <v>9.2086773064397928E-2</v>
       </c>
     </row>
     <row r="110" spans="1:47" ht="19" x14ac:dyDescent="0.2">
-      <c r="AN110" s="74" t="s">
+      <c r="AN110" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="AO110" s="74"/>
+      <c r="AO110" s="77"/>
       <c r="AP110" s="51"/>
       <c r="AQ110" s="51"/>
       <c r="AR110" s="51"/>
@@ -17617,7 +17596,7 @@
       </c>
       <c r="AO111" s="56">
         <f>NPV(AU109,AN109,AO109,AP109,AQ109,AR109)</f>
-        <v>1793457046739.3335</v>
+        <v>1776928135240.8081</v>
       </c>
       <c r="AP111" s="51"/>
       <c r="AQ111" s="51"/>
@@ -17662,7 +17641,7 @@
       </c>
       <c r="AO114" s="56">
         <f>AO111+AO112-AO113</f>
-        <v>1721692046739.3335</v>
+        <v>1705163135240.8081</v>
       </c>
       <c r="AP114" s="51"/>
       <c r="AQ114" s="51"/>
@@ -17692,7 +17671,7 @@
       </c>
       <c r="AO116" s="66">
         <f>AO114/AO115</f>
-        <v>139.74506000544397</v>
+        <v>138.40345322183791</v>
       </c>
       <c r="AP116" s="51"/>
       <c r="AQ116" s="51"/>
@@ -17707,7 +17686,7 @@
       </c>
       <c r="AO117" s="67" cm="1">
         <f t="array" ref="AO117">_FV(A1,"Price",TRUE)</f>
-        <v>168.22</v>
+        <v>177.57</v>
       </c>
       <c r="AP117" s="51"/>
       <c r="AQ117" s="51"/>
@@ -17722,7 +17701,7 @@
       </c>
       <c r="AO118" s="68">
         <f>(AO116/AO117)-1</f>
-        <v>-0.16927202469715863</v>
+        <v>-0.2205696163662898</v>
       </c>
       <c r="AP118" s="51"/>
       <c r="AQ118" s="51"/>

--- a/Technology/Hardware/Apple.xlsx
+++ b/Technology/Hardware/Apple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF628389-D278-3340-A7DB-FD937D4EB22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA937DE3-5AC1-B040-A7E6-617DC3CED5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1747,6 +1747,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1766,7 +1768,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1779,6 +1781,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1906,11 +1910,11 @@
     <v>Powered by Refinitiv</v>
     <v>198.23</v>
     <v>124.17</v>
-    <v>1.3015000000000001</v>
-    <v>1.29</v>
-    <v>6.7910000000000002E-3</v>
-    <v>0.06</v>
-    <v>3.1370000000000004E-4</v>
+    <v>1.3008</v>
+    <v>1.44</v>
+    <v>7.4119999999999993E-3</v>
+    <v>0.13</v>
+    <v>6.642000000000001E-4</v>
     <v>USD</v>
     <v>Apple Inc. designs, manufactures and markets smartphones, personal computers, tablets, wearables and accessories, and sells a variety of related services. The Company's product categories include iPhone, Mac, iPad, and Wearables, Home and Accessories. Its software platforms include iOS, iPadOS, macOS, watchOS and tvOS. Its services include advertising, AppleCare, cloud services, digital content and payment services. It operates various platforms, including the App Store, that allow customers to discover and download applications and digital content, such as books, music, video, games and podcasts. It also offers digital content through subscription-based services, including Apple Arcade, Apple Fitness+, Apple Music, Apple News+ and Apple TV+. The Company's products include iPhone 15 Pro, iPhone 15, iPhone 14, iPhone 13, MacBook Air, MacBook Pro, iMac, Mac mini, Mac Studio, Mac Pro, iPad Pro, iPad Air, iPad, iPad mini, Apple Watch Series 9, AirPods, AirPods Pro, AirPods Max and HomePod.</v>
     <v>161000</v>
@@ -1918,25 +1922,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Apple Park Way, CUPERTINO, CA, 95014 US</v>
-    <v>191.56</v>
+    <v>195.99</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>45261.963449640622</v>
+    <v>45269.041594803122</v>
     <v>0</v>
-    <v>189.23</v>
-    <v>2974308000000</v>
+    <v>193.67</v>
+    <v>3043828702500</v>
     <v>APPLE INC.</v>
     <v>APPLE INC.</v>
-    <v>190.33</v>
-    <v>30.9665</v>
-    <v>189.95</v>
-    <v>191.24</v>
-    <v>191.3</v>
+    <v>194.2</v>
+    <v>31.6708</v>
+    <v>194.27</v>
+    <v>195.71</v>
+    <v>195.84</v>
     <v>15552750000</v>
     <v>AAPL</v>
     <v>APPLE INC. (XNAS:AAPL)</v>
-    <v>45704823</v>
-    <v>52994483</v>
+    <v>53406358</v>
+    <v>51484637</v>
     <v>1977</v>
   </rv>
   <rv s="2">
@@ -2549,8 +2553,8 @@
   <dimension ref="A1:U196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O18" sqref="O18"/>
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L194" sqref="L194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15207,9 +15211,6 @@
       <c r="A196" s="8"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" tooltip="ROIC AI" display="ROIC AI" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="B1:U1 A4:U7 A15:U16 A19:U33 A191:U195 A2:U2 A9:U11 A13:U13 A37:U128 A130:U142 A144:U188" numberStoredAsText="1"/>
@@ -15222,7 +15223,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15275,7 +15276,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>2974308000000</v>
+        <v>3043828702500</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>203</v>
@@ -15303,14 +15304,14 @@
       </c>
       <c r="I3" s="40">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>2206649311907.4023</v>
+        <v>2188590093583.0347</v>
       </c>
       <c r="J3" s="41" t="s">
         <v>207</v>
       </c>
       <c r="K3" s="42">
         <f>Financials!Q172*-1/Model!A3</f>
-        <v>5.0515951945797142E-3</v>
+        <v>4.9362173330120239E-3</v>
       </c>
       <c r="L3" s="43" t="s">
         <v>208</v>
@@ -15355,14 +15356,14 @@
       </c>
       <c r="I4" s="50">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>1884556434382.1277</v>
+        <v>1868662496424.8801</v>
       </c>
       <c r="J4" s="48" t="s">
         <v>214</v>
       </c>
       <c r="K4" s="51" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>6.7910000000000002E-3</v>
+        <v>7.4119999999999993E-3</v>
       </c>
       <c r="L4" s="52" t="s">
         <v>215</v>
@@ -15407,14 +15408,14 @@
       </c>
       <c r="I5" s="50">
         <f>I4+G5-G6</f>
-        <v>1835023434382.1277</v>
+        <v>1819129496424.8801</v>
       </c>
       <c r="J5" s="48" t="s">
         <v>221</v>
       </c>
       <c r="K5" s="54" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>191.24</v>
+        <v>195.71</v>
       </c>
       <c r="L5" s="55" t="s">
         <v>222</v>
@@ -15434,7 +15435,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="58">
         <f>O20/F10</f>
-        <v>7.4357699999999998</v>
+        <v>7.6095717562500003</v>
       </c>
       <c r="B6" s="46" t="s">
         <v>224</v>
@@ -15462,14 +15463,14 @@
       </c>
       <c r="I6" s="51">
         <f>N25</f>
-        <v>9.3607412688125807E-2</v>
+        <v>9.4173528859462591E-2</v>
       </c>
       <c r="J6" s="48" t="s">
         <v>227</v>
       </c>
       <c r="K6" s="59">
         <f>I5/G4</f>
-        <v>134.99842392530741</v>
+        <v>133.82914372212704</v>
       </c>
       <c r="L6" s="60" t="s">
         <v>228</v>
@@ -15489,14 +15490,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="61">
         <f>O20/F12</f>
-        <v>29.390395256916996</v>
+        <v>30.077358720355733</v>
       </c>
       <c r="B7" s="62" t="s">
         <v>230</v>
       </c>
       <c r="C7" s="63">
         <f>F15/A3</f>
-        <v>3.5470435476083848E-2</v>
+        <v>3.4660294750933018E-2</v>
       </c>
       <c r="D7" s="62" t="s">
         <v>231</v>
@@ -15523,7 +15524,7 @@
       </c>
       <c r="K7" s="69">
         <f>K6/K5-1</f>
-        <v>-0.29408897759199226</v>
+        <v>-0.31618648141573225</v>
       </c>
       <c r="L7" s="70" t="s">
         <v>234</v>
@@ -15850,7 +15851,7 @@
       </c>
       <c r="O14" s="89">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="44"/>
       <c r="Q14" s="44"/>
@@ -16002,7 +16003,7 @@
       </c>
       <c r="O17" s="99">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.762570000000001E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="44"/>
       <c r="Q17" s="44"/>
@@ -16085,7 +16086,7 @@
       </c>
       <c r="O20" s="105">
         <f>A3</f>
-        <v>2974308000000</v>
+        <v>3043828702500</v>
       </c>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
@@ -16115,7 +16116,7 @@
       </c>
       <c r="O21" s="105">
         <f>O19+O20</f>
-        <v>3085396000000</v>
+        <v>3154916702500</v>
       </c>
       <c r="P21" s="44"/>
       <c r="Q21" s="44"/>
@@ -16143,7 +16144,7 @@
       </c>
       <c r="O22" s="107">
         <f>(O19/O21)</f>
-        <v>3.6004454533550959E-2</v>
+        <v>3.5211072264434845E-2</v>
       </c>
       <c r="P22" s="44"/>
       <c r="Q22" s="44"/>
@@ -16168,7 +16169,7 @@
       </c>
       <c r="O23" s="108">
         <f>O20/O21</f>
-        <v>0.96399554546644906</v>
+        <v>0.96478892773556513</v>
       </c>
       <c r="P23" s="44"/>
       <c r="Q23" s="44"/>
@@ -16212,7 +16213,7 @@
       <c r="M25" s="72"/>
       <c r="N25" s="112">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.3607412688125807E-2</v>
+        <v>9.4173528859462591E-2</v>
       </c>
       <c r="O25" s="113"/>
       <c r="P25" s="44"/>
